--- a/backend/tempfile/processed_g.xlsx
+++ b/backend/tempfile/processed_g.xlsx
@@ -539,7 +539,7 @@
         <v>5563.56</v>
       </c>
       <c r="E2" t="n">
-        <v>3049</v>
+        <v>3060</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>1056.39</v>
       </c>
       <c r="E3" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -659,7 +659,7 @@
         <v>1790.51</v>
       </c>
       <c r="E4" t="n">
-        <v>3124</v>
+        <v>3135</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -719,7 +719,7 @@
         <v>5086.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2920</v>
+        <v>2931</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -779,7 +779,7 @@
         <v>886.16</v>
       </c>
       <c r="E6" t="n">
-        <v>3280</v>
+        <v>3291</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -839,7 +839,7 @@
         <v>7755.62</v>
       </c>
       <c r="E7" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
@@ -899,7 +899,7 @@
         <v>14473.57</v>
       </c>
       <c r="E8" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
         <v>966.71</v>
       </c>
       <c r="E9" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -1019,7 +1019,7 @@
         <v>1113.84</v>
       </c>
       <c r="E10" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
@@ -1079,7 +1079,7 @@
         <v>914.53</v>
       </c>
       <c r="E11" t="n">
-        <v>3031</v>
+        <v>3042</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
@@ -1139,7 +1139,7 @@
         <v>1515.86</v>
       </c>
       <c r="E12" t="n">
-        <v>2915</v>
+        <v>2926</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -1199,7 +1199,7 @@
         <v>925.8</v>
       </c>
       <c r="E13" t="n">
-        <v>3097</v>
+        <v>3108</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         <v>5527.85</v>
       </c>
       <c r="E14" t="n">
-        <v>2876</v>
+        <v>2887</v>
       </c>
       <c r="F14" t="n">
         <v>7</v>
@@ -1319,7 +1319,7 @@
         <v>2537.69</v>
       </c>
       <c r="E15" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
@@ -1379,7 +1379,7 @@
         <v>657.3200000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>3147</v>
+        <v>3158</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -1439,7 +1439,7 @@
         <v>6106.88</v>
       </c>
       <c r="E17" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
@@ -1499,7 +1499,7 @@
         <v>2052.91</v>
       </c>
       <c r="E18" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F18" t="n">
         <v>7</v>
@@ -1559,7 +1559,7 @@
         <v>861.5599999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>3280</v>
+        <v>3291</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
@@ -1619,7 +1619,7 @@
         <v>2582.9</v>
       </c>
       <c r="E20" t="n">
-        <v>3143</v>
+        <v>3154</v>
       </c>
       <c r="F20" t="n">
         <v>5</v>
@@ -1679,7 +1679,7 @@
         <v>367.55</v>
       </c>
       <c r="E21" t="n">
-        <v>2983</v>
+        <v>2994</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>660.97</v>
       </c>
       <c r="E22" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
@@ -1799,7 +1799,7 @@
         <v>200.95</v>
       </c>
       <c r="E23" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1859,7 +1859,7 @@
         <v>2356.86</v>
       </c>
       <c r="E24" t="n">
-        <v>2943</v>
+        <v>2954</v>
       </c>
       <c r="F24" t="n">
         <v>8</v>
@@ -1919,7 +1919,7 @@
         <v>1455.04</v>
       </c>
       <c r="E25" t="n">
-        <v>3710</v>
+        <v>3721</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
@@ -1979,7 +1979,7 @@
         <v>3489.04</v>
       </c>
       <c r="E26" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
@@ -2039,7 +2039,7 @@
         <v>170.58</v>
       </c>
       <c r="E27" t="n">
-        <v>2942</v>
+        <v>2953</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
@@ -2099,7 +2099,7 @@
         <v>4510.8</v>
       </c>
       <c r="E28" t="n">
-        <v>2961</v>
+        <v>2972</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
         <v>1744.7</v>
       </c>
       <c r="E29" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F29" t="n">
         <v>7</v>
@@ -2219,7 +2219,7 @@
         <v>3250.34</v>
       </c>
       <c r="E30" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
@@ -2279,7 +2279,7 @@
         <v>1735.51</v>
       </c>
       <c r="E31" t="n">
-        <v>2925</v>
+        <v>2936</v>
       </c>
       <c r="F31" t="n">
         <v>7</v>
@@ -2339,7 +2339,7 @@
         <v>1587.45</v>
       </c>
       <c r="E32" t="n">
-        <v>2920</v>
+        <v>2931</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
@@ -2399,7 +2399,7 @@
         <v>4805.34</v>
       </c>
       <c r="E33" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F33" t="n">
         <v>9</v>
@@ -2459,7 +2459,7 @@
         <v>2495.39</v>
       </c>
       <c r="E34" t="n">
-        <v>3095</v>
+        <v>3106</v>
       </c>
       <c r="F34" t="n">
         <v>5</v>
@@ -2519,7 +2519,7 @@
         <v>738.5</v>
       </c>
       <c r="E35" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
@@ -2579,7 +2579,7 @@
         <v>7888.29</v>
       </c>
       <c r="E36" t="n">
-        <v>3275</v>
+        <v>3286</v>
       </c>
       <c r="F36" t="n">
         <v>12</v>
@@ -2640,7 +2640,7 @@
         <v>4375.79</v>
       </c>
       <c r="E37" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F37" t="n">
         <v>10</v>
@@ -2700,7 +2700,7 @@
         <v>4867.34</v>
       </c>
       <c r="E38" t="n">
-        <v>2940</v>
+        <v>2951</v>
       </c>
       <c r="F38" t="n">
         <v>7</v>
@@ -2760,7 +2760,7 @@
         <v>4501.39</v>
       </c>
       <c r="E39" t="n">
-        <v>3031</v>
+        <v>3042</v>
       </c>
       <c r="F39" t="n">
         <v>7</v>
@@ -2820,7 +2820,7 @@
         <v>1839.24</v>
       </c>
       <c r="E40" t="n">
-        <v>2950</v>
+        <v>2961</v>
       </c>
       <c r="F40" t="n">
         <v>7</v>
@@ -2880,7 +2880,7 @@
         <v>629.25</v>
       </c>
       <c r="E41" t="n">
-        <v>2939</v>
+        <v>2950</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -2940,7 +2940,7 @@
         <v>814.01</v>
       </c>
       <c r="E42" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F42" t="n">
         <v>5</v>
@@ -3000,7 +3000,7 @@
         <v>5664.02</v>
       </c>
       <c r="E43" t="n">
-        <v>3027</v>
+        <v>3038</v>
       </c>
       <c r="F43" t="n">
         <v>8</v>
@@ -3061,7 +3061,7 @@
         <v>161.28</v>
       </c>
       <c r="E44" t="n">
-        <v>3366</v>
+        <v>3377</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>1638.55</v>
       </c>
       <c r="E45" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F45" t="n">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         <v>3323.56</v>
       </c>
       <c r="E46" t="n">
-        <v>2963</v>
+        <v>2974</v>
       </c>
       <c r="F46" t="n">
         <v>10</v>
@@ -3241,7 +3241,7 @@
         <v>1055.69</v>
       </c>
       <c r="E47" t="n">
-        <v>2976</v>
+        <v>2987</v>
       </c>
       <c r="F47" t="n">
         <v>4</v>
@@ -3301,7 +3301,7 @@
         <v>2236.13</v>
       </c>
       <c r="E48" t="n">
-        <v>2990</v>
+        <v>3001</v>
       </c>
       <c r="F48" t="n">
         <v>5</v>
@@ -3361,7 +3361,7 @@
         <v>264.86</v>
       </c>
       <c r="E49" t="n">
-        <v>2879</v>
+        <v>2890</v>
       </c>
       <c r="F49" t="n">
         <v>5</v>
@@ -3421,7 +3421,7 @@
         <v>6608.45</v>
       </c>
       <c r="E50" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F50" t="n">
         <v>6</v>
@@ -3481,7 +3481,7 @@
         <v>88.15000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>3399</v>
+        <v>3410</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>4523.34</v>
       </c>
       <c r="E52" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F52" t="n">
         <v>8</v>
@@ -3601,7 +3601,7 @@
         <v>3050.69</v>
       </c>
       <c r="E53" t="n">
-        <v>2953</v>
+        <v>2964</v>
       </c>
       <c r="F53" t="n">
         <v>7</v>
@@ -3661,7 +3661,7 @@
         <v>3255.31</v>
       </c>
       <c r="E54" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F54" t="n">
         <v>9</v>
@@ -3721,7 +3721,7 @@
         <v>58.82</v>
       </c>
       <c r="E55" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
@@ -3781,7 +3781,7 @@
         <v>4260.78</v>
       </c>
       <c r="E56" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F56" t="n">
         <v>5</v>
@@ -3841,7 +3841,7 @@
         <v>584.61</v>
       </c>
       <c r="E57" t="n">
-        <v>3057</v>
+        <v>3068</v>
       </c>
       <c r="F57" t="n">
         <v>7</v>
@@ -3901,7 +3901,7 @@
         <v>3214.24</v>
       </c>
       <c r="E58" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F58" t="n">
         <v>6</v>
@@ -3961,7 +3961,7 @@
         <v>833.4</v>
       </c>
       <c r="E59" t="n">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F59" t="n">
         <v>7</v>
@@ -4021,7 +4021,7 @@
         <v>1171.81</v>
       </c>
       <c r="E60" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F60" t="n">
         <v>6</v>
@@ -4081,7 +4081,7 @@
         <v>3831.86</v>
       </c>
       <c r="E61" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F61" t="n">
         <v>10</v>
@@ -4141,7 +4141,7 @@
         <v>649.38</v>
       </c>
       <c r="E62" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F62" t="n">
         <v>4</v>
@@ -4201,7 +4201,7 @@
         <v>2852.97</v>
       </c>
       <c r="E63" t="n">
-        <v>2911</v>
+        <v>2922</v>
       </c>
       <c r="F63" t="n">
         <v>7</v>
@@ -4261,7 +4261,7 @@
         <v>497.01</v>
       </c>
       <c r="E64" t="n">
-        <v>2879</v>
+        <v>2890</v>
       </c>
       <c r="F64" t="n">
         <v>4</v>
@@ -4321,7 +4321,7 @@
         <v>1622.02</v>
       </c>
       <c r="E65" t="n">
-        <v>3025</v>
+        <v>3036</v>
       </c>
       <c r="F65" t="n">
         <v>6</v>
@@ -4381,7 +4381,7 @@
         <v>744.34</v>
       </c>
       <c r="E66" t="n">
-        <v>2970</v>
+        <v>2981</v>
       </c>
       <c r="F66" t="n">
         <v>5</v>
@@ -4441,7 +4441,7 @@
         <v>6765.73</v>
       </c>
       <c r="E67" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -4501,7 +4501,7 @@
         <v>2933.68</v>
       </c>
       <c r="E68" t="n">
-        <v>3067</v>
+        <v>3078</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -4561,7 +4561,7 @@
         <v>5718.52</v>
       </c>
       <c r="E69" t="n">
-        <v>2898</v>
+        <v>2909</v>
       </c>
       <c r="F69" t="n">
         <v>12</v>
@@ -4621,7 +4621,7 @@
         <v>4411.24</v>
       </c>
       <c r="E70" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F70" t="n">
         <v>6</v>
@@ -4681,7 +4681,7 @@
         <v>320.54</v>
       </c>
       <c r="E71" t="n">
-        <v>3143</v>
+        <v>3154</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
@@ -4741,7 +4741,7 @@
         <v>3288.47</v>
       </c>
       <c r="E72" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F72" t="n">
         <v>7</v>
@@ -4801,7 +4801,7 @@
         <v>1538.11</v>
       </c>
       <c r="E73" t="n">
-        <v>2934</v>
+        <v>2945</v>
       </c>
       <c r="F73" t="n">
         <v>6</v>
@@ -4861,7 +4861,7 @@
         <v>582.65</v>
       </c>
       <c r="E74" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
@@ -4921,7 +4921,7 @@
         <v>1526.5</v>
       </c>
       <c r="E75" t="n">
-        <v>2958</v>
+        <v>2969</v>
       </c>
       <c r="F75" t="n">
         <v>6</v>
@@ -4981,7 +4981,7 @@
         <v>658.47</v>
       </c>
       <c r="E76" t="n">
-        <v>3192</v>
+        <v>3203</v>
       </c>
       <c r="F76" t="n">
         <v>6</v>
@@ -5041,7 +5041,7 @@
         <v>4204.68</v>
       </c>
       <c r="E77" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
@@ -5101,7 +5101,7 @@
         <v>2261.44</v>
       </c>
       <c r="E78" t="n">
-        <v>2963</v>
+        <v>2974</v>
       </c>
       <c r="F78" t="n">
         <v>5</v>
@@ -5161,7 +5161,7 @@
         <v>1727.65</v>
       </c>
       <c r="E79" t="n">
-        <v>3119</v>
+        <v>3130</v>
       </c>
       <c r="F79" t="n">
         <v>6</v>
@@ -5221,7 +5221,7 @@
         <v>599.8</v>
       </c>
       <c r="E80" t="n">
-        <v>2956</v>
+        <v>2967</v>
       </c>
       <c r="F80" t="n">
         <v>7</v>
@@ -5281,7 +5281,7 @@
         <v>1333.88</v>
       </c>
       <c r="E81" t="n">
-        <v>2904</v>
+        <v>2915</v>
       </c>
       <c r="F81" t="n">
         <v>4</v>
@@ -5341,7 +5341,7 @@
         <v>2888.51</v>
       </c>
       <c r="E82" t="n">
-        <v>2939</v>
+        <v>2950</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -5401,7 +5401,7 @@
         <v>272.95</v>
       </c>
       <c r="E83" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
@@ -5461,7 +5461,7 @@
         <v>5907.97</v>
       </c>
       <c r="E84" t="n">
-        <v>2881</v>
+        <v>2892</v>
       </c>
       <c r="F84" t="n">
         <v>11</v>
@@ -5521,7 +5521,7 @@
         <v>1585.16</v>
       </c>
       <c r="E85" t="n">
-        <v>2930</v>
+        <v>2941</v>
       </c>
       <c r="F85" t="n">
         <v>4</v>
@@ -5581,7 +5581,7 @@
         <v>791.99</v>
       </c>
       <c r="E86" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
@@ -5641,7 +5641,7 @@
         <v>2798.95</v>
       </c>
       <c r="E87" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F87" t="n">
         <v>8</v>
@@ -5701,7 +5701,7 @@
         <v>1874.17</v>
       </c>
       <c r="E88" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F88" t="n">
         <v>6</v>
@@ -5761,7 +5761,7 @@
         <v>1006.36</v>
       </c>
       <c r="E89" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F89" t="n">
         <v>6</v>
@@ -5821,7 +5821,7 @@
         <v>6255.35</v>
       </c>
       <c r="E90" t="n">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="F90" t="n">
         <v>8</v>
@@ -5881,7 +5881,7 @@
         <v>659.14</v>
       </c>
       <c r="E91" t="n">
-        <v>2942</v>
+        <v>2953</v>
       </c>
       <c r="F91" t="n">
         <v>6</v>
@@ -5941,7 +5941,7 @@
         <v>11789.63</v>
       </c>
       <c r="E92" t="n">
-        <v>3172</v>
+        <v>3183</v>
       </c>
       <c r="F92" t="n">
         <v>4</v>
@@ -6002,7 +6002,7 @@
         <v>808.16</v>
       </c>
       <c r="E93" t="n">
-        <v>2965</v>
+        <v>2976</v>
       </c>
       <c r="F93" t="n">
         <v>6</v>
@@ -6062,7 +6062,7 @@
         <v>7294.19</v>
       </c>
       <c r="E94" t="n">
-        <v>2898</v>
+        <v>2909</v>
       </c>
       <c r="F94" t="n">
         <v>11</v>
@@ -6122,7 +6122,7 @@
         <v>1338.84</v>
       </c>
       <c r="E95" t="n">
-        <v>3083</v>
+        <v>3094</v>
       </c>
       <c r="F95" t="n">
         <v>10</v>
@@ -6182,7 +6182,7 @@
         <v>265.3</v>
       </c>
       <c r="E96" t="n">
-        <v>2889</v>
+        <v>2900</v>
       </c>
       <c r="F96" t="n">
         <v>4</v>
@@ -6242,7 +6242,7 @@
         <v>1459.34</v>
       </c>
       <c r="E97" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F97" t="n">
         <v>5</v>
@@ -6302,7 +6302,7 @@
         <v>2682.73</v>
       </c>
       <c r="E98" t="n">
-        <v>3002</v>
+        <v>3013</v>
       </c>
       <c r="F98" t="n">
         <v>5</v>
@@ -6362,7 +6362,7 @@
         <v>130.83</v>
       </c>
       <c r="E99" t="n">
-        <v>2940</v>
+        <v>2951</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
@@ -6422,7 +6422,7 @@
         <v>983.42</v>
       </c>
       <c r="E100" t="n">
-        <v>2948</v>
+        <v>2959</v>
       </c>
       <c r="F100" t="n">
         <v>5</v>
@@ -6482,7 +6482,7 @@
         <v>2442.04</v>
       </c>
       <c r="E101" t="n">
-        <v>2882</v>
+        <v>2893</v>
       </c>
       <c r="F101" t="n">
         <v>12</v>
@@ -6542,7 +6542,7 @@
         <v>1697.86</v>
       </c>
       <c r="E102" t="n">
-        <v>2954</v>
+        <v>2965</v>
       </c>
       <c r="F102" t="n">
         <v>6</v>
@@ -6602,7 +6602,7 @@
         <v>3675.86</v>
       </c>
       <c r="E103" t="n">
-        <v>2866</v>
+        <v>2877</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
@@ -6662,7 +6662,7 @@
         <v>1181.49</v>
       </c>
       <c r="E104" t="n">
-        <v>2904</v>
+        <v>2915</v>
       </c>
       <c r="F104" t="n">
         <v>5</v>
@@ -6722,7 +6722,7 @@
         <v>2475.16</v>
       </c>
       <c r="E105" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F105" t="n">
         <v>7</v>
@@ -6782,7 +6782,7 @@
         <v>10501.65</v>
       </c>
       <c r="E106" t="n">
-        <v>3423</v>
+        <v>3434</v>
       </c>
       <c r="F106" t="n">
         <v>5</v>
@@ -6842,7 +6842,7 @@
         <v>3887.83</v>
       </c>
       <c r="E107" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F107" t="n">
         <v>5</v>
@@ -6902,7 +6902,7 @@
         <v>2454.93</v>
       </c>
       <c r="E108" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F108" t="n">
         <v>6</v>
@@ -6962,7 +6962,7 @@
         <v>3288.11</v>
       </c>
       <c r="E109" t="n">
-        <v>3447</v>
+        <v>3458</v>
       </c>
       <c r="F109" t="n">
         <v>3</v>
@@ -7022,7 +7022,7 @@
         <v>2562.38</v>
       </c>
       <c r="E110" t="n">
-        <v>2866</v>
+        <v>2877</v>
       </c>
       <c r="F110" t="n">
         <v>7</v>
@@ -7082,7 +7082,7 @@
         <v>949.4299999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>3130</v>
+        <v>3141</v>
       </c>
       <c r="F111" t="n">
         <v>2</v>
@@ -7142,7 +7142,7 @@
         <v>2567.66</v>
       </c>
       <c r="E112" t="n">
-        <v>3201</v>
+        <v>3212</v>
       </c>
       <c r="F112" t="n">
         <v>5</v>
@@ -7202,7 +7202,7 @@
         <v>2186.61</v>
       </c>
       <c r="E113" t="n">
-        <v>3167</v>
+        <v>3178</v>
       </c>
       <c r="F113" t="n">
         <v>6</v>
@@ -7262,7 +7262,7 @@
         <v>603.88</v>
       </c>
       <c r="E114" t="n">
-        <v>3425</v>
+        <v>3436</v>
       </c>
       <c r="F114" t="n">
         <v>4</v>
@@ -7322,7 +7322,7 @@
         <v>415.2</v>
       </c>
       <c r="E115" t="n">
-        <v>3524</v>
+        <v>3535</v>
       </c>
       <c r="F115" t="n">
         <v>2</v>
@@ -7382,7 +7382,7 @@
         <v>2684.49</v>
       </c>
       <c r="E116" t="n">
-        <v>2956</v>
+        <v>2967</v>
       </c>
       <c r="F116" t="n">
         <v>5</v>
@@ -7442,7 +7442,7 @@
         <v>3196.75</v>
       </c>
       <c r="E117" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F117" t="n">
         <v>7</v>
@@ -7502,7 +7502,7 @@
         <v>1523.27</v>
       </c>
       <c r="E118" t="n">
-        <v>3199</v>
+        <v>3210</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
@@ -7562,7 +7562,7 @@
         <v>385.52</v>
       </c>
       <c r="E119" t="n">
-        <v>3077</v>
+        <v>3088</v>
       </c>
       <c r="F119" t="n">
         <v>3</v>
@@ -7622,7 +7622,7 @@
         <v>4750.36</v>
       </c>
       <c r="E120" t="n">
-        <v>2986</v>
+        <v>2997</v>
       </c>
       <c r="F120" t="n">
         <v>8</v>
@@ -7682,7 +7682,7 @@
         <v>1738.41</v>
       </c>
       <c r="E121" t="n">
-        <v>3068</v>
+        <v>3079</v>
       </c>
       <c r="F121" t="n">
         <v>6</v>
@@ -7742,7 +7742,7 @@
         <v>3789.72</v>
       </c>
       <c r="E122" t="n">
-        <v>2961</v>
+        <v>2972</v>
       </c>
       <c r="F122" t="n">
         <v>6</v>
@@ -7802,7 +7802,7 @@
         <v>1679.72</v>
       </c>
       <c r="E123" t="n">
-        <v>3266</v>
+        <v>3277</v>
       </c>
       <c r="F123" t="n">
         <v>5</v>
@@ -7862,7 +7862,7 @@
         <v>2648.29</v>
       </c>
       <c r="E124" t="n">
-        <v>2921</v>
+        <v>2932</v>
       </c>
       <c r="F124" t="n">
         <v>9</v>
@@ -7922,7 +7922,7 @@
         <v>1421.95</v>
       </c>
       <c r="E125" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F125" t="n">
         <v>4</v>
@@ -7982,7 +7982,7 @@
         <v>3041.57</v>
       </c>
       <c r="E126" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="F126" t="n">
         <v>7</v>
@@ -8042,7 +8042,7 @@
         <v>6076.14</v>
       </c>
       <c r="E127" t="n">
-        <v>2912</v>
+        <v>2923</v>
       </c>
       <c r="F127" t="n">
         <v>10</v>
@@ -8102,7 +8102,7 @@
         <v>1949.2</v>
       </c>
       <c r="E128" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F128" t="n">
         <v>8</v>
@@ -8162,7 +8162,7 @@
         <v>4246.46</v>
       </c>
       <c r="E129" t="n">
-        <v>3062</v>
+        <v>3073</v>
       </c>
       <c r="F129" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
         <v>1770.95</v>
       </c>
       <c r="E130" t="n">
-        <v>3322</v>
+        <v>3333</v>
       </c>
       <c r="F130" t="n">
         <v>6</v>
@@ -8283,7 +8283,7 @@
         <v>2471.65</v>
       </c>
       <c r="E131" t="n">
-        <v>2971</v>
+        <v>2982</v>
       </c>
       <c r="F131" t="n">
         <v>7</v>
@@ -8343,7 +8343,7 @@
         <v>3913.42</v>
       </c>
       <c r="E132" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F132" t="n">
         <v>12</v>
@@ -8403,7 +8403,7 @@
         <v>12129.07</v>
       </c>
       <c r="E133" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F133" t="n">
         <v>5</v>
@@ -8463,7 +8463,7 @@
         <v>2870.05</v>
       </c>
       <c r="E134" t="n">
-        <v>2865</v>
+        <v>2876</v>
       </c>
       <c r="F134" t="n">
         <v>10</v>
@@ -8523,7 +8523,7 @@
         <v>1659.44</v>
       </c>
       <c r="E135" t="n">
-        <v>2904</v>
+        <v>2915</v>
       </c>
       <c r="F135" t="n">
         <v>9</v>
@@ -8583,7 +8583,7 @@
         <v>113.83</v>
       </c>
       <c r="E136" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F136" t="n">
         <v>3</v>
@@ -8643,7 +8643,7 @@
         <v>2540.63</v>
       </c>
       <c r="E137" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F137" t="n">
         <v>7</v>
@@ -8703,7 +8703,7 @@
         <v>2269.7</v>
       </c>
       <c r="E138" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F138" t="n">
         <v>7</v>
@@ -8763,7 +8763,7 @@
         <v>2854.12</v>
       </c>
       <c r="E139" t="n">
-        <v>3664</v>
+        <v>3675</v>
       </c>
       <c r="F139" t="n">
         <v>4</v>
@@ -8823,7 +8823,7 @@
         <v>2033.97</v>
       </c>
       <c r="E140" t="n">
-        <v>2905</v>
+        <v>2916</v>
       </c>
       <c r="F140" t="n">
         <v>5</v>
@@ -8883,7 +8883,7 @@
         <v>639.77</v>
       </c>
       <c r="E141" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F141" t="n">
         <v>3</v>
@@ -8943,7 +8943,7 @@
         <v>1205.58</v>
       </c>
       <c r="E142" t="n">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F142" t="n">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>1860.73</v>
       </c>
       <c r="E143" t="n">
-        <v>3264</v>
+        <v>3275</v>
       </c>
       <c r="F143" t="n">
         <v>5</v>
@@ -9063,7 +9063,7 @@
         <v>904.47</v>
       </c>
       <c r="E144" t="n">
-        <v>2914</v>
+        <v>2925</v>
       </c>
       <c r="F144" t="n">
         <v>6</v>
@@ -9123,7 +9123,7 @@
         <v>1148.78</v>
       </c>
       <c r="E145" t="n">
-        <v>3203</v>
+        <v>3214</v>
       </c>
       <c r="F145" t="n">
         <v>3</v>
@@ -9183,7 +9183,7 @@
         <v>1537.24</v>
       </c>
       <c r="E146" t="n">
-        <v>3556</v>
+        <v>3567</v>
       </c>
       <c r="F146" t="n">
         <v>3</v>
@@ -9243,7 +9243,7 @@
         <v>16.52</v>
       </c>
       <c r="E147" t="n">
-        <v>3230</v>
+        <v>3241</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -9303,7 +9303,7 @@
         <v>11164.97</v>
       </c>
       <c r="E148" t="n">
-        <v>3054</v>
+        <v>3065</v>
       </c>
       <c r="F148" t="n">
         <v>8</v>
@@ -9364,7 +9364,7 @@
         <v>3154.86</v>
       </c>
       <c r="E149" t="n">
-        <v>2904</v>
+        <v>2915</v>
       </c>
       <c r="F149" t="n">
         <v>13</v>
@@ -9424,7 +9424,7 @@
         <v>2945.32</v>
       </c>
       <c r="E150" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="F150" t="n">
         <v>5</v>
@@ -9484,7 +9484,7 @@
         <v>2372.75</v>
       </c>
       <c r="E151" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F151" t="n">
         <v>11</v>
@@ -9544,7 +9544,7 @@
         <v>1582.11</v>
       </c>
       <c r="E152" t="n">
-        <v>2947</v>
+        <v>2958</v>
       </c>
       <c r="F152" t="n">
         <v>9</v>
@@ -9604,7 +9604,7 @@
         <v>1262.01</v>
       </c>
       <c r="E153" t="n">
-        <v>2971</v>
+        <v>2982</v>
       </c>
       <c r="F153" t="n">
         <v>4</v>
@@ -9664,7 +9664,7 @@
         <v>10880.55</v>
       </c>
       <c r="E154" t="n">
-        <v>3149</v>
+        <v>3160</v>
       </c>
       <c r="F154" t="n">
         <v>12</v>
@@ -9725,7 +9725,7 @@
         <v>2353.59</v>
       </c>
       <c r="E155" t="n">
-        <v>2970</v>
+        <v>2981</v>
       </c>
       <c r="F155" t="n">
         <v>5</v>
@@ -9785,7 +9785,7 @@
         <v>1673.89</v>
       </c>
       <c r="E156" t="n">
-        <v>2996</v>
+        <v>3007</v>
       </c>
       <c r="F156" t="n">
         <v>6</v>
@@ -9845,7 +9845,7 @@
         <v>565.39</v>
       </c>
       <c r="E157" t="n">
-        <v>3573</v>
+        <v>3584</v>
       </c>
       <c r="F157" t="n">
         <v>2</v>
@@ -9905,7 +9905,7 @@
         <v>1661.61</v>
       </c>
       <c r="E158" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F158" t="n">
         <v>4</v>
@@ -9965,7 +9965,7 @@
         <v>2533.31</v>
       </c>
       <c r="E159" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F159" t="n">
         <v>6</v>
@@ -10025,7 +10025,7 @@
         <v>1475.14</v>
       </c>
       <c r="E160" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F160" t="n">
         <v>6</v>
@@ -10085,7 +10085,7 @@
         <v>2305.71</v>
       </c>
       <c r="E161" t="n">
-        <v>3250</v>
+        <v>3261</v>
       </c>
       <c r="F161" t="n">
         <v>5</v>
@@ -10145,7 +10145,7 @@
         <v>8954.02</v>
       </c>
       <c r="E162" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F162" t="n">
         <v>4</v>
@@ -10205,7 +10205,7 @@
         <v>287.99</v>
       </c>
       <c r="E163" t="n">
-        <v>3301</v>
+        <v>3312</v>
       </c>
       <c r="F163" t="n">
         <v>3</v>
@@ -10265,7 +10265,7 @@
         <v>6339.56</v>
       </c>
       <c r="E164" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F164" t="n">
         <v>6</v>
@@ -10325,7 +10325,7 @@
         <v>3984.45</v>
       </c>
       <c r="E165" t="n">
-        <v>3900</v>
+        <v>3911</v>
       </c>
       <c r="F165" t="n">
         <v>4</v>
@@ -10385,7 +10385,7 @@
         <v>5402.25</v>
       </c>
       <c r="E166" t="n">
-        <v>2947</v>
+        <v>2958</v>
       </c>
       <c r="F166" t="n">
         <v>8</v>
@@ -10445,7 +10445,7 @@
         <v>5888.28</v>
       </c>
       <c r="E167" t="n">
-        <v>3025</v>
+        <v>3036</v>
       </c>
       <c r="F167" t="n">
         <v>8</v>
@@ -10506,7 +10506,7 @@
         <v>2148.85</v>
       </c>
       <c r="E168" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F168" t="n">
         <v>4</v>
@@ -10566,7 +10566,7 @@
         <v>475.9</v>
       </c>
       <c r="E169" t="n">
-        <v>3335</v>
+        <v>3346</v>
       </c>
       <c r="F169" t="n">
         <v>3</v>
@@ -10626,7 +10626,7 @@
         <v>1600.55</v>
       </c>
       <c r="E170" t="n">
-        <v>2943</v>
+        <v>2954</v>
       </c>
       <c r="F170" t="n">
         <v>4</v>
@@ -10686,7 +10686,7 @@
         <v>1397.87</v>
       </c>
       <c r="E171" t="n">
-        <v>2950</v>
+        <v>2961</v>
       </c>
       <c r="F171" t="n">
         <v>3</v>
@@ -10746,7 +10746,7 @@
         <v>1278.95</v>
       </c>
       <c r="E172" t="n">
-        <v>2956</v>
+        <v>2967</v>
       </c>
       <c r="F172" t="n">
         <v>5</v>
@@ -10806,7 +10806,7 @@
         <v>537.63</v>
       </c>
       <c r="E173" t="n">
-        <v>3027</v>
+        <v>3038</v>
       </c>
       <c r="F173" t="n">
         <v>6</v>
@@ -10866,7 +10866,7 @@
         <v>3036.55</v>
       </c>
       <c r="E174" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F174" t="n">
         <v>11</v>
@@ -10926,7 +10926,7 @@
         <v>884.64</v>
       </c>
       <c r="E175" t="n">
-        <v>3354</v>
+        <v>3365</v>
       </c>
       <c r="F175" t="n">
         <v>4</v>
@@ -10986,7 +10986,7 @@
         <v>844.46</v>
       </c>
       <c r="E176" t="n">
-        <v>3097</v>
+        <v>3108</v>
       </c>
       <c r="F176" t="n">
         <v>5</v>
@@ -11046,7 +11046,7 @@
         <v>2754.22</v>
       </c>
       <c r="E177" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F177" t="n">
         <v>12</v>
@@ -11106,7 +11106,7 @@
         <v>3202.16</v>
       </c>
       <c r="E178" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F178" t="n">
         <v>11</v>
@@ -11166,7 +11166,7 @@
         <v>3651.86</v>
       </c>
       <c r="E179" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F179" t="n">
         <v>9</v>
@@ -11226,7 +11226,7 @@
         <v>550.64</v>
       </c>
       <c r="E180" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F180" t="n">
         <v>2</v>
@@ -11286,7 +11286,7 @@
         <v>1077.23</v>
       </c>
       <c r="E181" t="n">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="F181" t="n">
         <v>4</v>
@@ -11346,7 +11346,7 @@
         <v>5690.06</v>
       </c>
       <c r="E182" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -11406,7 +11406,7 @@
         <v>3241.9</v>
       </c>
       <c r="E183" t="n">
-        <v>2961</v>
+        <v>2972</v>
       </c>
       <c r="F183" t="n">
         <v>8</v>
@@ -11466,7 +11466,7 @@
         <v>2830.63</v>
       </c>
       <c r="E184" t="n">
-        <v>3119</v>
+        <v>3130</v>
       </c>
       <c r="F184" t="n">
         <v>5</v>
@@ -11526,7 +11526,7 @@
         <v>2370.31</v>
       </c>
       <c r="E185" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F185" t="n">
         <v>9</v>
@@ -11586,7 +11586,7 @@
         <v>1136.59</v>
       </c>
       <c r="E186" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F186" t="n">
         <v>6</v>
@@ -11646,7 +11646,7 @@
         <v>2900.03</v>
       </c>
       <c r="E187" t="n">
-        <v>2925</v>
+        <v>2936</v>
       </c>
       <c r="F187" t="n">
         <v>8</v>
@@ -11706,7 +11706,7 @@
         <v>1300.08</v>
       </c>
       <c r="E188" t="n">
-        <v>3414</v>
+        <v>3425</v>
       </c>
       <c r="F188" t="n">
         <v>5</v>
@@ -11766,7 +11766,7 @@
         <v>156.76</v>
       </c>
       <c r="E189" t="n">
-        <v>3217</v>
+        <v>3228</v>
       </c>
       <c r="F189" t="n">
         <v>4</v>
@@ -11826,7 +11826,7 @@
         <v>2171.6</v>
       </c>
       <c r="E190" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F190" t="n">
         <v>8</v>
@@ -11886,7 +11886,7 @@
         <v>2839.23</v>
       </c>
       <c r="E191" t="n">
-        <v>3106</v>
+        <v>3117</v>
       </c>
       <c r="F191" t="n">
         <v>5</v>
@@ -11946,7 +11946,7 @@
         <v>4531.65</v>
       </c>
       <c r="E192" t="n">
-        <v>2881</v>
+        <v>2892</v>
       </c>
       <c r="F192" t="n">
         <v>7</v>
@@ -12006,7 +12006,7 @@
         <v>2973.09</v>
       </c>
       <c r="E193" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F193" t="n">
         <v>7</v>
@@ -12066,7 +12066,7 @@
         <v>2332.58</v>
       </c>
       <c r="E194" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F194" t="n">
         <v>10</v>
@@ -12126,7 +12126,7 @@
         <v>4655.9</v>
       </c>
       <c r="E195" t="n">
-        <v>2918</v>
+        <v>2929</v>
       </c>
       <c r="F195" t="n">
         <v>8</v>
@@ -12186,7 +12186,7 @@
         <v>1081.47</v>
       </c>
       <c r="E196" t="n">
-        <v>3129</v>
+        <v>3140</v>
       </c>
       <c r="F196" t="n">
         <v>5</v>
@@ -12246,7 +12246,7 @@
         <v>1711.69</v>
       </c>
       <c r="E197" t="n">
-        <v>3052</v>
+        <v>3063</v>
       </c>
       <c r="F197" t="n">
         <v>4</v>
@@ -12306,7 +12306,7 @@
         <v>3908.8</v>
       </c>
       <c r="E198" t="n">
-        <v>2972</v>
+        <v>2983</v>
       </c>
       <c r="F198" t="n">
         <v>7</v>
@@ -12366,7 +12366,7 @@
         <v>1989.05</v>
       </c>
       <c r="E199" t="n">
-        <v>2898</v>
+        <v>2909</v>
       </c>
       <c r="F199" t="n">
         <v>7</v>
@@ -12426,7 +12426,7 @@
         <v>1155.2</v>
       </c>
       <c r="E200" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F200" t="n">
         <v>7</v>
@@ -12486,7 +12486,7 @@
         <v>3336.17</v>
       </c>
       <c r="E201" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F201" t="n">
         <v>9</v>
@@ -12546,7 +12546,7 @@
         <v>1174.62</v>
       </c>
       <c r="E202" t="n">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="F202" t="n">
         <v>5</v>
@@ -12606,7 +12606,7 @@
         <v>269.54</v>
       </c>
       <c r="E203" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F203" t="n">
         <v>6</v>
@@ -12666,7 +12666,7 @@
         <v>2550.87</v>
       </c>
       <c r="E204" t="n">
-        <v>3584</v>
+        <v>3595</v>
       </c>
       <c r="F204" t="n">
         <v>5</v>
@@ -12726,7 +12726,7 @@
         <v>2390.53</v>
       </c>
       <c r="E205" t="n">
-        <v>3565</v>
+        <v>3576</v>
       </c>
       <c r="F205" t="n">
         <v>3</v>
@@ -12786,7 +12786,7 @@
         <v>3195.82</v>
       </c>
       <c r="E206" t="n">
-        <v>2897</v>
+        <v>2908</v>
       </c>
       <c r="F206" t="n">
         <v>5</v>
@@ -12846,7 +12846,7 @@
         <v>4932.87</v>
       </c>
       <c r="E207" t="n">
-        <v>3142</v>
+        <v>3153</v>
       </c>
       <c r="F207" t="n">
         <v>6</v>
@@ -12906,7 +12906,7 @@
         <v>1043.1</v>
       </c>
       <c r="E208" t="n">
-        <v>3641</v>
+        <v>3652</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -12966,7 +12966,7 @@
         <v>2012.52</v>
       </c>
       <c r="E209" t="n">
-        <v>3502</v>
+        <v>3513</v>
       </c>
       <c r="F209" t="n">
         <v>4</v>
@@ -13026,7 +13026,7 @@
         <v>2501.69</v>
       </c>
       <c r="E210" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F210" t="n">
         <v>8</v>
@@ -13086,7 +13086,7 @@
         <v>3356.4</v>
       </c>
       <c r="E211" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F211" t="n">
         <v>3</v>
@@ -13146,7 +13146,7 @@
         <v>3256.48</v>
       </c>
       <c r="E212" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F212" t="n">
         <v>12</v>
@@ -13206,7 +13206,7 @@
         <v>4282.18</v>
       </c>
       <c r="E213" t="n">
-        <v>2910</v>
+        <v>2921</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -13266,7 +13266,7 @@
         <v>1687.04</v>
       </c>
       <c r="E214" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F214" t="n">
         <v>5</v>
@@ -13326,7 +13326,7 @@
         <v>2650.56</v>
       </c>
       <c r="E215" t="n">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F215" t="n">
         <v>7</v>
@@ -13386,7 +13386,7 @@
         <v>797.83</v>
       </c>
       <c r="E216" t="n">
-        <v>2875</v>
+        <v>2886</v>
       </c>
       <c r="F216" t="n">
         <v>2</v>
@@ -13446,7 +13446,7 @@
         <v>4802.39</v>
       </c>
       <c r="E217" t="n">
-        <v>2875</v>
+        <v>2886</v>
       </c>
       <c r="F217" t="n">
         <v>9</v>
@@ -13506,7 +13506,7 @@
         <v>3318.49</v>
       </c>
       <c r="E218" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F218" t="n">
         <v>8</v>
@@ -13566,7 +13566,7 @@
         <v>1503.11</v>
       </c>
       <c r="E219" t="n">
-        <v>2965</v>
+        <v>2976</v>
       </c>
       <c r="F219" t="n">
         <v>8</v>
@@ -13626,7 +13626,7 @@
         <v>3272.2</v>
       </c>
       <c r="E220" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F220" t="n">
         <v>6</v>
@@ -13686,7 +13686,7 @@
         <v>1458.26</v>
       </c>
       <c r="E221" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F221" t="n">
         <v>8</v>
@@ -13746,7 +13746,7 @@
         <v>585.02</v>
       </c>
       <c r="E222" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F222" t="n">
         <v>4</v>
@@ -13806,7 +13806,7 @@
         <v>3539.32</v>
       </c>
       <c r="E223" t="n">
-        <v>2941</v>
+        <v>2952</v>
       </c>
       <c r="F223" t="n">
         <v>8</v>
@@ -13866,7 +13866,7 @@
         <v>1322.03</v>
       </c>
       <c r="E224" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F224" t="n">
         <v>7</v>
@@ -13926,7 +13926,7 @@
         <v>6345.1</v>
       </c>
       <c r="E225" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F225" t="n">
         <v>7</v>
@@ -13986,7 +13986,7 @@
         <v>4074.47</v>
       </c>
       <c r="E226" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F226" t="n">
         <v>8</v>
@@ -14046,7 +14046,7 @@
         <v>1376.79</v>
       </c>
       <c r="E227" t="n">
-        <v>3346</v>
+        <v>3357</v>
       </c>
       <c r="F227" t="n">
         <v>3</v>
@@ -14106,7 +14106,7 @@
         <v>2139.79</v>
       </c>
       <c r="E228" t="n">
-        <v>3082</v>
+        <v>3093</v>
       </c>
       <c r="F228" t="n">
         <v>7</v>
@@ -14166,7 +14166,7 @@
         <v>1300.03</v>
       </c>
       <c r="E229" t="n">
-        <v>2998</v>
+        <v>3009</v>
       </c>
       <c r="F229" t="n">
         <v>9</v>
@@ -14226,7 +14226,7 @@
         <v>1267.32</v>
       </c>
       <c r="E230" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F230" t="n">
         <v>7</v>
@@ -14286,7 +14286,7 @@
         <v>1050.64</v>
       </c>
       <c r="E231" t="n">
-        <v>2991</v>
+        <v>3002</v>
       </c>
       <c r="F231" t="n">
         <v>9</v>
@@ -14346,7 +14346,7 @@
         <v>2215</v>
       </c>
       <c r="E232" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F232" t="n">
         <v>8</v>
@@ -14406,7 +14406,7 @@
         <v>1058.62</v>
       </c>
       <c r="E233" t="n">
-        <v>3677</v>
+        <v>3688</v>
       </c>
       <c r="F233" t="n">
         <v>2</v>
@@ -14466,7 +14466,7 @@
         <v>5480.72</v>
       </c>
       <c r="E234" t="n">
-        <v>3223</v>
+        <v>3234</v>
       </c>
       <c r="F234" t="n">
         <v>9</v>
@@ -14527,7 +14527,7 @@
         <v>6528.03</v>
       </c>
       <c r="E235" t="n">
-        <v>2868</v>
+        <v>2879</v>
       </c>
       <c r="F235" t="n">
         <v>9</v>
@@ -14587,7 +14587,7 @@
         <v>8350.870000000001</v>
       </c>
       <c r="E236" t="n">
-        <v>2915</v>
+        <v>2926</v>
       </c>
       <c r="F236" t="n">
         <v>8</v>
@@ -14647,7 +14647,7 @@
         <v>1762.21</v>
       </c>
       <c r="E237" t="n">
-        <v>2958</v>
+        <v>2969</v>
       </c>
       <c r="F237" t="n">
         <v>4</v>
@@ -14707,7 +14707,7 @@
         <v>2881.81</v>
       </c>
       <c r="E238" t="n">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -14767,7 +14767,7 @@
         <v>1119.48</v>
       </c>
       <c r="E239" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
@@ -14827,7 +14827,7 @@
         <v>3341.59</v>
       </c>
       <c r="E240" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F240" t="n">
         <v>6</v>
@@ -14887,7 +14887,7 @@
         <v>1080.75</v>
       </c>
       <c r="E241" t="n">
-        <v>2934</v>
+        <v>2945</v>
       </c>
       <c r="F241" t="n">
         <v>6</v>
@@ -14947,7 +14947,7 @@
         <v>5271.63</v>
       </c>
       <c r="E242" t="n">
-        <v>3082</v>
+        <v>3093</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
@@ -15007,7 +15007,7 @@
         <v>344.08</v>
       </c>
       <c r="E243" t="n">
-        <v>2963</v>
+        <v>2974</v>
       </c>
       <c r="F243" t="n">
         <v>5</v>
@@ -15067,7 +15067,7 @@
         <v>1204.85</v>
       </c>
       <c r="E244" t="n">
-        <v>3107</v>
+        <v>3118</v>
       </c>
       <c r="F244" t="n">
         <v>7</v>
@@ -15127,7 +15127,7 @@
         <v>755.6</v>
       </c>
       <c r="E245" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
@@ -15187,7 +15187,7 @@
         <v>7198.76</v>
       </c>
       <c r="E246" t="n">
-        <v>2949</v>
+        <v>2960</v>
       </c>
       <c r="F246" t="n">
         <v>11</v>
@@ -15247,7 +15247,7 @@
         <v>2846.7</v>
       </c>
       <c r="E247" t="n">
-        <v>3017</v>
+        <v>3028</v>
       </c>
       <c r="F247" t="n">
         <v>13</v>
@@ -15307,7 +15307,7 @@
         <v>3644.98</v>
       </c>
       <c r="E248" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F248" t="n">
         <v>9</v>
@@ -15367,7 +15367,7 @@
         <v>3236.31</v>
       </c>
       <c r="E249" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F249" t="n">
         <v>10</v>
@@ -15427,7 +15427,7 @@
         <v>4358.13</v>
       </c>
       <c r="E250" t="n">
-        <v>2955</v>
+        <v>2966</v>
       </c>
       <c r="F250" t="n">
         <v>5</v>
@@ -15487,7 +15487,7 @@
         <v>2767.22</v>
       </c>
       <c r="E251" t="n">
-        <v>2965</v>
+        <v>2976</v>
       </c>
       <c r="F251" t="n">
         <v>10</v>
@@ -15547,7 +15547,7 @@
         <v>944.6</v>
       </c>
       <c r="E252" t="n">
-        <v>3026</v>
+        <v>3037</v>
       </c>
       <c r="F252" t="n">
         <v>5</v>
@@ -15607,7 +15607,7 @@
         <v>1643.26</v>
       </c>
       <c r="E253" t="n">
-        <v>2865</v>
+        <v>2876</v>
       </c>
       <c r="F253" t="n">
         <v>4</v>
@@ -15667,7 +15667,7 @@
         <v>3071.13</v>
       </c>
       <c r="E254" t="n">
-        <v>2978</v>
+        <v>2989</v>
       </c>
       <c r="F254" t="n">
         <v>6</v>
@@ -15727,7 +15727,7 @@
         <v>1186.33</v>
       </c>
       <c r="E255" t="n">
-        <v>2947</v>
+        <v>2958</v>
       </c>
       <c r="F255" t="n">
         <v>6</v>
@@ -15787,7 +15787,7 @@
         <v>461.91</v>
       </c>
       <c r="E256" t="n">
-        <v>2918</v>
+        <v>2929</v>
       </c>
       <c r="F256" t="n">
         <v>5</v>
@@ -15847,7 +15847,7 @@
         <v>3484.92</v>
       </c>
       <c r="E257" t="n">
-        <v>3000</v>
+        <v>3011</v>
       </c>
       <c r="F257" t="n">
         <v>8</v>
@@ -15907,7 +15907,7 @@
         <v>1832.02</v>
       </c>
       <c r="E258" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F258" t="n">
         <v>5</v>
@@ -15967,7 +15967,7 @@
         <v>10310.88</v>
       </c>
       <c r="E259" t="n">
-        <v>3000</v>
+        <v>3011</v>
       </c>
       <c r="F259" t="n">
         <v>12</v>
@@ -16027,7 +16027,7 @@
         <v>684.17</v>
       </c>
       <c r="E260" t="n">
-        <v>3082</v>
+        <v>3093</v>
       </c>
       <c r="F260" t="n">
         <v>8</v>
@@ -16087,7 +16087,7 @@
         <v>825.95</v>
       </c>
       <c r="E261" t="n">
-        <v>3270</v>
+        <v>3281</v>
       </c>
       <c r="F261" t="n">
         <v>6</v>
@@ -16147,7 +16147,7 @@
         <v>1219.53</v>
       </c>
       <c r="E262" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F262" t="n">
         <v>7</v>
@@ -16207,7 +16207,7 @@
         <v>3082.65</v>
       </c>
       <c r="E263" t="n">
-        <v>3017</v>
+        <v>3028</v>
       </c>
       <c r="F263" t="n">
         <v>10</v>
@@ -16267,7 +16267,7 @@
         <v>923.88</v>
       </c>
       <c r="E264" t="n">
-        <v>2970</v>
+        <v>2981</v>
       </c>
       <c r="F264" t="n">
         <v>6</v>
@@ -16327,7 +16327,7 @@
         <v>2162.17</v>
       </c>
       <c r="E265" t="n">
-        <v>3167</v>
+        <v>3178</v>
       </c>
       <c r="F265" t="n">
         <v>4</v>
@@ -16387,7 +16387,7 @@
         <v>2656.69</v>
       </c>
       <c r="E266" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F266" t="n">
         <v>5</v>
@@ -16447,7 +16447,7 @@
         <v>1303.48</v>
       </c>
       <c r="E267" t="n">
-        <v>2909</v>
+        <v>2920</v>
       </c>
       <c r="F267" t="n">
         <v>4</v>
@@ -16507,7 +16507,7 @@
         <v>124.28</v>
       </c>
       <c r="E268" t="n">
-        <v>2942</v>
+        <v>2953</v>
       </c>
       <c r="F268" t="n">
         <v>2</v>
@@ -16567,7 +16567,7 @@
         <v>2567.01</v>
       </c>
       <c r="E269" t="n">
-        <v>2997</v>
+        <v>3008</v>
       </c>
       <c r="F269" t="n">
         <v>5</v>
@@ -16627,7 +16627,7 @@
         <v>2339.6</v>
       </c>
       <c r="E270" t="n">
-        <v>2920</v>
+        <v>2931</v>
       </c>
       <c r="F270" t="n">
         <v>8</v>
@@ -16687,7 +16687,7 @@
         <v>933.7</v>
       </c>
       <c r="E271" t="n">
-        <v>3016</v>
+        <v>3027</v>
       </c>
       <c r="F271" t="n">
         <v>5</v>
@@ -16747,7 +16747,7 @@
         <v>228.99</v>
       </c>
       <c r="E272" t="n">
-        <v>2912</v>
+        <v>2923</v>
       </c>
       <c r="F272" t="n">
         <v>4</v>
@@ -16807,7 +16807,7 @@
         <v>1041.04</v>
       </c>
       <c r="E273" t="n">
-        <v>2978</v>
+        <v>2989</v>
       </c>
       <c r="F273" t="n">
         <v>4</v>
@@ -16867,7 +16867,7 @@
         <v>4588.44</v>
       </c>
       <c r="E274" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F274" t="n">
         <v>6</v>
@@ -16927,7 +16927,7 @@
         <v>366.82</v>
       </c>
       <c r="E275" t="n">
-        <v>3023</v>
+        <v>3034</v>
       </c>
       <c r="F275" t="n">
         <v>3</v>
@@ -16987,7 +16987,7 @@
         <v>2199.37</v>
       </c>
       <c r="E276" t="n">
-        <v>3152</v>
+        <v>3163</v>
       </c>
       <c r="F276" t="n">
         <v>4</v>
@@ -17047,7 +17047,7 @@
         <v>5478.06</v>
       </c>
       <c r="E277" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F277" t="n">
         <v>17</v>
@@ -17107,7 +17107,7 @@
         <v>1245.79</v>
       </c>
       <c r="E278" t="n">
-        <v>3286</v>
+        <v>3297</v>
       </c>
       <c r="F278" t="n">
         <v>3</v>
@@ -17167,7 +17167,7 @@
         <v>3510.46</v>
       </c>
       <c r="E279" t="n">
-        <v>2905</v>
+        <v>2916</v>
       </c>
       <c r="F279" t="n">
         <v>5</v>
@@ -17227,7 +17227,7 @@
         <v>4657.92</v>
       </c>
       <c r="E280" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F280" t="n">
         <v>9</v>
@@ -17287,7 +17287,7 @@
         <v>2984.05</v>
       </c>
       <c r="E281" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F281" t="n">
         <v>7</v>
@@ -17347,7 +17347,7 @@
         <v>3418.74</v>
       </c>
       <c r="E282" t="n">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="F282" t="n">
         <v>7</v>
@@ -17407,7 +17407,7 @@
         <v>3889.37</v>
       </c>
       <c r="E283" t="n">
-        <v>3049</v>
+        <v>3060</v>
       </c>
       <c r="F283" t="n">
         <v>7</v>
@@ -17467,7 +17467,7 @@
         <v>1383.14</v>
       </c>
       <c r="E284" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F284" t="n">
         <v>7</v>
@@ -17527,7 +17527,7 @@
         <v>4256.27</v>
       </c>
       <c r="E285" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F285" t="n">
         <v>10</v>
@@ -17587,7 +17587,7 @@
         <v>2271.28</v>
       </c>
       <c r="E286" t="n">
-        <v>3077</v>
+        <v>3088</v>
       </c>
       <c r="F286" t="n">
         <v>4</v>
@@ -17647,7 +17647,7 @@
         <v>6987.2</v>
       </c>
       <c r="E287" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F287" t="n">
         <v>8</v>
@@ -17707,7 +17707,7 @@
         <v>2456.64</v>
       </c>
       <c r="E288" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F288" t="n">
         <v>10</v>
@@ -17767,7 +17767,7 @@
         <v>3736.2</v>
       </c>
       <c r="E289" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F289" t="n">
         <v>9</v>
@@ -17827,7 +17827,7 @@
         <v>2523.27</v>
       </c>
       <c r="E290" t="n">
-        <v>3010</v>
+        <v>3021</v>
       </c>
       <c r="F290" t="n">
         <v>9</v>
@@ -17887,7 +17887,7 @@
         <v>2678.44</v>
       </c>
       <c r="E291" t="n">
-        <v>2903</v>
+        <v>2914</v>
       </c>
       <c r="F291" t="n">
         <v>10</v>
@@ -17947,7 +17947,7 @@
         <v>4046.75</v>
       </c>
       <c r="E292" t="n">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="F292" t="n">
         <v>8</v>
@@ -18007,7 +18007,7 @@
         <v>79.75</v>
       </c>
       <c r="E293" t="n">
-        <v>3227</v>
+        <v>3238</v>
       </c>
       <c r="F293" t="n">
         <v>3</v>
@@ -18067,7 +18067,7 @@
         <v>3919.78</v>
       </c>
       <c r="E294" t="n">
-        <v>3014</v>
+        <v>3025</v>
       </c>
       <c r="F294" t="n">
         <v>8</v>
@@ -18128,7 +18128,7 @@
         <v>1398.38</v>
       </c>
       <c r="E295" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F295" t="n">
         <v>11</v>
@@ -18188,7 +18188,7 @@
         <v>1568.44</v>
       </c>
       <c r="E296" t="n">
-        <v>2927</v>
+        <v>2938</v>
       </c>
       <c r="F296" t="n">
         <v>11</v>
@@ -18248,7 +18248,7 @@
         <v>4716.29</v>
       </c>
       <c r="E297" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F297" t="n">
         <v>5</v>
@@ -18308,7 +18308,7 @@
         <v>1888.07</v>
       </c>
       <c r="E298" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F298" t="n">
         <v>4</v>
@@ -18368,7 +18368,7 @@
         <v>2224</v>
       </c>
       <c r="E299" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F299" t="n">
         <v>9</v>
@@ -18428,7 +18428,7 @@
         <v>2819.47</v>
       </c>
       <c r="E300" t="n">
-        <v>2940</v>
+        <v>2951</v>
       </c>
       <c r="F300" t="n">
         <v>9</v>
@@ -18488,7 +18488,7 @@
         <v>4172.85</v>
       </c>
       <c r="E301" t="n">
-        <v>2915</v>
+        <v>2926</v>
       </c>
       <c r="F301" t="n">
         <v>4</v>
@@ -18548,7 +18548,7 @@
         <v>1361.24</v>
       </c>
       <c r="E302" t="n">
-        <v>3252</v>
+        <v>3263</v>
       </c>
       <c r="F302" t="n">
         <v>2</v>
@@ -18608,7 +18608,7 @@
         <v>146.94</v>
       </c>
       <c r="E303" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F303" t="n">
         <v>2</v>
@@ -18668,7 +18668,7 @@
         <v>6497.27</v>
       </c>
       <c r="E304" t="n">
-        <v>2977</v>
+        <v>2988</v>
       </c>
       <c r="F304" t="n">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>3582.82</v>
       </c>
       <c r="E305" t="n">
-        <v>2948</v>
+        <v>2959</v>
       </c>
       <c r="F305" t="n">
         <v>7</v>
@@ -18788,7 +18788,7 @@
         <v>3078.62</v>
       </c>
       <c r="E306" t="n">
-        <v>2881</v>
+        <v>2892</v>
       </c>
       <c r="F306" t="n">
         <v>6</v>
@@ -18848,7 +18848,7 @@
         <v>1255.68</v>
       </c>
       <c r="E307" t="n">
-        <v>2971</v>
+        <v>2982</v>
       </c>
       <c r="F307" t="n">
         <v>10</v>
@@ -18908,7 +18908,7 @@
         <v>3163.63</v>
       </c>
       <c r="E308" t="n">
-        <v>3017</v>
+        <v>3028</v>
       </c>
       <c r="F308" t="n">
         <v>6</v>
@@ -18968,7 +18968,7 @@
         <v>6049.97</v>
       </c>
       <c r="E309" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F309" t="n">
         <v>3</v>
@@ -19028,7 +19028,7 @@
         <v>236.53</v>
       </c>
       <c r="E310" t="n">
-        <v>3630</v>
+        <v>3641</v>
       </c>
       <c r="F310" t="n">
         <v>2</v>
@@ -19088,7 +19088,7 @@
         <v>1284.38</v>
       </c>
       <c r="E311" t="n">
-        <v>4000</v>
+        <v>4011</v>
       </c>
       <c r="F311" t="n">
         <v>2</v>
@@ -19148,7 +19148,7 @@
         <v>9351.209999999999</v>
       </c>
       <c r="E312" t="n">
-        <v>2921</v>
+        <v>2932</v>
       </c>
       <c r="F312" t="n">
         <v>3</v>
@@ -19208,7 +19208,7 @@
         <v>11820.12</v>
       </c>
       <c r="E313" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F313" t="n">
         <v>11</v>
@@ -19268,7 +19268,7 @@
         <v>226.44</v>
       </c>
       <c r="E314" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F314" t="n">
         <v>4</v>
@@ -19328,7 +19328,7 @@
         <v>2189.02</v>
       </c>
       <c r="E315" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F315" t="n">
         <v>7</v>
@@ -19388,7 +19388,7 @@
         <v>4355.15</v>
       </c>
       <c r="E316" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F316" t="n">
         <v>9</v>
@@ -19448,7 +19448,7 @@
         <v>2454.62</v>
       </c>
       <c r="E317" t="n">
-        <v>3022</v>
+        <v>3033</v>
       </c>
       <c r="F317" t="n">
         <v>4</v>
@@ -19508,7 +19508,7 @@
         <v>2163.3</v>
       </c>
       <c r="E318" t="n">
-        <v>2934</v>
+        <v>2945</v>
       </c>
       <c r="F318" t="n">
         <v>7</v>
@@ -19568,7 +19568,7 @@
         <v>2584.16</v>
       </c>
       <c r="E319" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F319" t="n">
         <v>8</v>
@@ -19628,7 +19628,7 @@
         <v>251.36</v>
       </c>
       <c r="E320" t="n">
-        <v>3634</v>
+        <v>3645</v>
       </c>
       <c r="F320" t="n">
         <v>3</v>
@@ -19688,7 +19688,7 @@
         <v>883.53</v>
       </c>
       <c r="E321" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F321" t="n">
         <v>4</v>
@@ -19748,7 +19748,7 @@
         <v>2533.16</v>
       </c>
       <c r="E322" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F322" t="n">
         <v>7</v>
@@ -19808,7 +19808,7 @@
         <v>785.63</v>
       </c>
       <c r="E323" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F323" t="n">
         <v>5</v>
@@ -19868,7 +19868,7 @@
         <v>3247.64</v>
       </c>
       <c r="E324" t="n">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="F324" t="n">
         <v>12</v>
@@ -19928,7 +19928,7 @@
         <v>3690.28</v>
       </c>
       <c r="E325" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F325" t="n">
         <v>7</v>
@@ -19988,7 +19988,7 @@
         <v>218.67</v>
       </c>
       <c r="E326" t="n">
-        <v>2937</v>
+        <v>2948</v>
       </c>
       <c r="F326" t="n">
         <v>2</v>
@@ -20048,7 +20048,7 @@
         <v>358.1</v>
       </c>
       <c r="E327" t="n">
-        <v>2991</v>
+        <v>3002</v>
       </c>
       <c r="F327" t="n">
         <v>5</v>
@@ -20108,7 +20108,7 @@
         <v>4877.78</v>
       </c>
       <c r="E328" t="n">
-        <v>3016</v>
+        <v>3027</v>
       </c>
       <c r="F328" t="n">
         <v>8</v>
@@ -20169,7 +20169,7 @@
         <v>12873.3</v>
       </c>
       <c r="E329" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F329" t="n">
         <v>6</v>
@@ -20229,7 +20229,7 @@
         <v>8236.76</v>
       </c>
       <c r="E330" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F330" t="n">
         <v>10</v>
@@ -20289,7 +20289,7 @@
         <v>736.28</v>
       </c>
       <c r="E331" t="n">
-        <v>3112</v>
+        <v>3123</v>
       </c>
       <c r="F331" t="n">
         <v>4</v>
@@ -20349,7 +20349,7 @@
         <v>1990.31</v>
       </c>
       <c r="E332" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F332" t="n">
         <v>7</v>
@@ -20409,7 +20409,7 @@
         <v>1299.29</v>
       </c>
       <c r="E333" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F333" t="n">
         <v>5</v>
@@ -20469,7 +20469,7 @@
         <v>5248.79</v>
       </c>
       <c r="E334" t="n">
-        <v>3024</v>
+        <v>3035</v>
       </c>
       <c r="F334" t="n">
         <v>7</v>
@@ -20529,7 +20529,7 @@
         <v>9300.25</v>
       </c>
       <c r="E335" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F335" t="n">
         <v>8</v>
@@ -20589,7 +20589,7 @@
         <v>886.52</v>
       </c>
       <c r="E336" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F336" t="n">
         <v>5</v>
@@ -20649,7 +20649,7 @@
         <v>744.5700000000001</v>
       </c>
       <c r="E337" t="n">
-        <v>2936</v>
+        <v>2947</v>
       </c>
       <c r="F337" t="n">
         <v>4</v>
@@ -20709,7 +20709,7 @@
         <v>5040.74</v>
       </c>
       <c r="E338" t="n">
-        <v>3007</v>
+        <v>3018</v>
       </c>
       <c r="F338" t="n">
         <v>7</v>
@@ -20769,7 +20769,7 @@
         <v>2872.63</v>
       </c>
       <c r="E339" t="n">
-        <v>3274</v>
+        <v>3285</v>
       </c>
       <c r="F339" t="n">
         <v>3</v>
@@ -20829,7 +20829,7 @@
         <v>4930.47</v>
       </c>
       <c r="E340" t="n">
-        <v>3255</v>
+        <v>3266</v>
       </c>
       <c r="F340" t="n">
         <v>7</v>
@@ -20889,7 +20889,7 @@
         <v>6491.03</v>
       </c>
       <c r="E341" t="n">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F341" t="n">
         <v>8</v>
@@ -20949,7 +20949,7 @@
         <v>1791.61</v>
       </c>
       <c r="E342" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F342" t="n">
         <v>10</v>
@@ -21009,7 +21009,7 @@
         <v>900.55</v>
       </c>
       <c r="E343" t="n">
-        <v>3602</v>
+        <v>3613</v>
       </c>
       <c r="F343" t="n">
         <v>3</v>
@@ -21069,7 +21069,7 @@
         <v>644.12</v>
       </c>
       <c r="E344" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F344" t="n">
         <v>7</v>
@@ -21129,7 +21129,7 @@
         <v>2518.11</v>
       </c>
       <c r="E345" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F345" t="n">
         <v>5</v>
@@ -21189,7 +21189,7 @@
         <v>71.26000000000001</v>
       </c>
       <c r="E346" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F346" t="n">
         <v>4</v>
@@ -21249,7 +21249,7 @@
         <v>1058.11</v>
       </c>
       <c r="E347" t="n">
-        <v>3040</v>
+        <v>3051</v>
       </c>
       <c r="F347" t="n">
         <v>1</v>
@@ -21309,7 +21309,7 @@
         <v>2772.06</v>
       </c>
       <c r="E348" t="n">
-        <v>3023</v>
+        <v>3034</v>
       </c>
       <c r="F348" t="n">
         <v>9</v>
@@ -21369,7 +21369,7 @@
         <v>858.58</v>
       </c>
       <c r="E349" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F349" t="n">
         <v>5</v>
@@ -21429,7 +21429,7 @@
         <v>2152.35</v>
       </c>
       <c r="E350" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F350" t="n">
         <v>5</v>
@@ -21489,7 +21489,7 @@
         <v>7610.86</v>
       </c>
       <c r="E351" t="n">
-        <v>3259</v>
+        <v>3270</v>
       </c>
       <c r="F351" t="n">
         <v>11</v>
@@ -21550,7 +21550,7 @@
         <v>385.43</v>
       </c>
       <c r="E352" t="n">
-        <v>2977</v>
+        <v>2988</v>
       </c>
       <c r="F352" t="n">
         <v>6</v>
@@ -21610,7 +21610,7 @@
         <v>695.4400000000001</v>
       </c>
       <c r="E353" t="n">
-        <v>3165</v>
+        <v>3176</v>
       </c>
       <c r="F353" t="n">
         <v>3</v>
@@ -21670,7 +21670,7 @@
         <v>8828.030000000001</v>
       </c>
       <c r="E354" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F354" t="n">
         <v>8</v>
@@ -21730,7 +21730,7 @@
         <v>1388.68</v>
       </c>
       <c r="E355" t="n">
-        <v>3058</v>
+        <v>3069</v>
       </c>
       <c r="F355" t="n">
         <v>6</v>
@@ -21790,7 +21790,7 @@
         <v>7754.98</v>
       </c>
       <c r="E356" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F356" t="n">
         <v>7</v>
@@ -21850,7 +21850,7 @@
         <v>8697.84</v>
       </c>
       <c r="E357" t="n">
-        <v>2911</v>
+        <v>2922</v>
       </c>
       <c r="F357" t="n">
         <v>10</v>
@@ -21910,7 +21910,7 @@
         <v>6760.82</v>
       </c>
       <c r="E358" t="n">
-        <v>2916</v>
+        <v>2927</v>
       </c>
       <c r="F358" t="n">
         <v>13</v>
@@ -21970,7 +21970,7 @@
         <v>2697.25</v>
       </c>
       <c r="E359" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F359" t="n">
         <v>3</v>
@@ -22030,7 +22030,7 @@
         <v>2279.59</v>
       </c>
       <c r="E360" t="n">
-        <v>2930</v>
+        <v>2941</v>
       </c>
       <c r="F360" t="n">
         <v>7</v>
@@ -22090,7 +22090,7 @@
         <v>955.12</v>
       </c>
       <c r="E361" t="n">
-        <v>3090</v>
+        <v>3101</v>
       </c>
       <c r="F361" t="n">
         <v>5</v>
@@ -22150,7 +22150,7 @@
         <v>1911.84</v>
       </c>
       <c r="E362" t="n">
-        <v>2970</v>
+        <v>2981</v>
       </c>
       <c r="F362" t="n">
         <v>6</v>
@@ -22210,7 +22210,7 @@
         <v>2371.45</v>
       </c>
       <c r="E363" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F363" t="n">
         <v>6</v>
@@ -22270,7 +22270,7 @@
         <v>1082.92</v>
       </c>
       <c r="E364" t="n">
-        <v>2986</v>
+        <v>2997</v>
       </c>
       <c r="F364" t="n">
         <v>11</v>
@@ -22330,7 +22330,7 @@
         <v>4198.33</v>
       </c>
       <c r="E365" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F365" t="n">
         <v>8</v>
@@ -22390,7 +22390,7 @@
         <v>2358.68</v>
       </c>
       <c r="E366" t="n">
-        <v>3623</v>
+        <v>3634</v>
       </c>
       <c r="F366" t="n">
         <v>3</v>
@@ -22450,7 +22450,7 @@
         <v>6366.39</v>
       </c>
       <c r="E367" t="n">
-        <v>2866</v>
+        <v>2877</v>
       </c>
       <c r="F367" t="n">
         <v>11</v>
@@ -22510,7 +22510,7 @@
         <v>2240.58</v>
       </c>
       <c r="E368" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F368" t="n">
         <v>6</v>
@@ -22570,7 +22570,7 @@
         <v>1507.02</v>
       </c>
       <c r="E369" t="n">
-        <v>3088</v>
+        <v>3099</v>
       </c>
       <c r="F369" t="n">
         <v>6</v>
@@ -22630,7 +22630,7 @@
         <v>309.28</v>
       </c>
       <c r="E370" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F370" t="n">
         <v>4</v>
@@ -22690,7 +22690,7 @@
         <v>528.91</v>
       </c>
       <c r="E371" t="n">
-        <v>3039</v>
+        <v>3050</v>
       </c>
       <c r="F371" t="n">
         <v>6</v>
@@ -22750,7 +22750,7 @@
         <v>959.48</v>
       </c>
       <c r="E372" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F372" t="n">
         <v>7</v>
@@ -22810,7 +22810,7 @@
         <v>7955</v>
       </c>
       <c r="E373" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F373" t="n">
         <v>6</v>
@@ -22870,7 +22870,7 @@
         <v>2256.39</v>
       </c>
       <c r="E374" t="n">
-        <v>3269</v>
+        <v>3280</v>
       </c>
       <c r="F374" t="n">
         <v>4</v>
@@ -22930,7 +22930,7 @@
         <v>709.1799999999999</v>
       </c>
       <c r="E375" t="n">
-        <v>3348</v>
+        <v>3359</v>
       </c>
       <c r="F375" t="n">
         <v>5</v>
@@ -22990,7 +22990,7 @@
         <v>195</v>
       </c>
       <c r="E376" t="n">
-        <v>3618</v>
+        <v>3629</v>
       </c>
       <c r="F376" t="n">
         <v>2</v>
@@ -23050,7 +23050,7 @@
         <v>4427.14</v>
       </c>
       <c r="E377" t="n">
-        <v>2926</v>
+        <v>2937</v>
       </c>
       <c r="F377" t="n">
         <v>5</v>
@@ -23110,7 +23110,7 @@
         <v>383.81</v>
       </c>
       <c r="E378" t="n">
-        <v>3152</v>
+        <v>3163</v>
       </c>
       <c r="F378" t="n">
         <v>3</v>
@@ -23170,7 +23170,7 @@
         <v>2709.63</v>
       </c>
       <c r="E379" t="n">
-        <v>2909</v>
+        <v>2920</v>
       </c>
       <c r="F379" t="n">
         <v>8</v>
@@ -23230,7 +23230,7 @@
         <v>3760.03</v>
       </c>
       <c r="E380" t="n">
-        <v>2926</v>
+        <v>2937</v>
       </c>
       <c r="F380" t="n">
         <v>7</v>
@@ -23290,7 +23290,7 @@
         <v>4760.43</v>
       </c>
       <c r="E381" t="n">
-        <v>3045</v>
+        <v>3056</v>
       </c>
       <c r="F381" t="n">
         <v>9</v>
@@ -23351,7 +23351,7 @@
         <v>4867.2</v>
       </c>
       <c r="E382" t="n">
-        <v>2949</v>
+        <v>2960</v>
       </c>
       <c r="F382" t="n">
         <v>10</v>
@@ -23411,7 +23411,7 @@
         <v>3747.67</v>
       </c>
       <c r="E383" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F383" t="n">
         <v>3</v>
@@ -23471,7 +23471,7 @@
         <v>2932.48</v>
       </c>
       <c r="E384" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F384" t="n">
         <v>10</v>
@@ -23531,7 +23531,7 @@
         <v>1214.96</v>
       </c>
       <c r="E385" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F385" t="n">
         <v>6</v>
@@ -23591,7 +23591,7 @@
         <v>1571.52</v>
       </c>
       <c r="E386" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F386" t="n">
         <v>5</v>
@@ -23651,7 +23651,7 @@
         <v>2203.7</v>
       </c>
       <c r="E387" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F387" t="n">
         <v>5</v>
@@ -23711,7 +23711,7 @@
         <v>3173.87</v>
       </c>
       <c r="E388" t="n">
-        <v>2914</v>
+        <v>2925</v>
       </c>
       <c r="F388" t="n">
         <v>6</v>
@@ -23771,7 +23771,7 @@
         <v>9799.92</v>
       </c>
       <c r="E389" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F389" t="n">
         <v>11</v>
@@ -23831,7 +23831,7 @@
         <v>2725.26</v>
       </c>
       <c r="E390" t="n">
-        <v>3479</v>
+        <v>3490</v>
       </c>
       <c r="F390" t="n">
         <v>6</v>
@@ -23891,7 +23891,7 @@
         <v>3159.12</v>
       </c>
       <c r="E391" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F391" t="n">
         <v>6</v>
@@ -23951,7 +23951,7 @@
         <v>1804.15</v>
       </c>
       <c r="E392" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F392" t="n">
         <v>5</v>
@@ -24011,7 +24011,7 @@
         <v>1733.44</v>
       </c>
       <c r="E393" t="n">
-        <v>2967</v>
+        <v>2978</v>
       </c>
       <c r="F393" t="n">
         <v>7</v>
@@ -24071,7 +24071,7 @@
         <v>303.95</v>
       </c>
       <c r="E394" t="n">
-        <v>2865</v>
+        <v>2876</v>
       </c>
       <c r="F394" t="n">
         <v>5</v>
@@ -24131,7 +24131,7 @@
         <v>864.95</v>
       </c>
       <c r="E395" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F395" t="n">
         <v>5</v>
@@ -24191,7 +24191,7 @@
         <v>7625.08</v>
       </c>
       <c r="E396" t="n">
-        <v>2974</v>
+        <v>2985</v>
       </c>
       <c r="F396" t="n">
         <v>7</v>
@@ -24251,7 +24251,7 @@
         <v>2833.93</v>
       </c>
       <c r="E397" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F397" t="n">
         <v>10</v>
@@ -24311,7 +24311,7 @@
         <v>3254.95</v>
       </c>
       <c r="E398" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F398" t="n">
         <v>9</v>
@@ -24371,7 +24371,7 @@
         <v>1934.27</v>
       </c>
       <c r="E399" t="n">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F399" t="n">
         <v>6</v>
@@ -24431,7 +24431,7 @@
         <v>1090.84</v>
       </c>
       <c r="E400" t="n">
-        <v>3080</v>
+        <v>3091</v>
       </c>
       <c r="F400" t="n">
         <v>5</v>
@@ -24491,7 +24491,7 @@
         <v>1669.13</v>
       </c>
       <c r="E401" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F401" t="n">
         <v>7</v>
@@ -24551,7 +24551,7 @@
         <v>3635.59</v>
       </c>
       <c r="E402" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F402" t="n">
         <v>7</v>
@@ -24611,7 +24611,7 @@
         <v>1707.71</v>
       </c>
       <c r="E403" t="n">
-        <v>2967</v>
+        <v>2978</v>
       </c>
       <c r="F403" t="n">
         <v>9</v>
@@ -24671,7 +24671,7 @@
         <v>1156.66</v>
       </c>
       <c r="E404" t="n">
-        <v>3458</v>
+        <v>3469</v>
       </c>
       <c r="F404" t="n">
         <v>2</v>
@@ -24731,7 +24731,7 @@
         <v>863.88</v>
       </c>
       <c r="E405" t="n">
-        <v>2933</v>
+        <v>2944</v>
       </c>
       <c r="F405" t="n">
         <v>1</v>
@@ -24791,7 +24791,7 @@
         <v>2201.69</v>
       </c>
       <c r="E406" t="n">
-        <v>2898</v>
+        <v>2909</v>
       </c>
       <c r="F406" t="n">
         <v>5</v>
@@ -24851,7 +24851,7 @@
         <v>1417.65</v>
       </c>
       <c r="E407" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F407" t="n">
         <v>4</v>
@@ -24911,7 +24911,7 @@
         <v>1131.06</v>
       </c>
       <c r="E408" t="n">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F408" t="n">
         <v>4</v>
@@ -24971,7 +24971,7 @@
         <v>3868.02</v>
       </c>
       <c r="E409" t="n">
-        <v>3399</v>
+        <v>3410</v>
       </c>
       <c r="F409" t="n">
         <v>5</v>
@@ -25031,7 +25031,7 @@
         <v>469.17</v>
       </c>
       <c r="E410" t="n">
-        <v>3328</v>
+        <v>3339</v>
       </c>
       <c r="F410" t="n">
         <v>5</v>
@@ -25091,7 +25091,7 @@
         <v>2516.49</v>
       </c>
       <c r="E411" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F411" t="n">
         <v>6</v>
@@ -25151,7 +25151,7 @@
         <v>7721.71</v>
       </c>
       <c r="E412" t="n">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F412" t="n">
         <v>6</v>
@@ -25211,7 +25211,7 @@
         <v>1244.09</v>
       </c>
       <c r="E413" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F413" t="n">
         <v>7</v>
@@ -25271,7 +25271,7 @@
         <v>1428.73</v>
       </c>
       <c r="E414" t="n">
-        <v>3326</v>
+        <v>3337</v>
       </c>
       <c r="F414" t="n">
         <v>4</v>
@@ -25331,7 +25331,7 @@
         <v>1519.51</v>
       </c>
       <c r="E415" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F415" t="n">
         <v>7</v>
@@ -25391,7 +25391,7 @@
         <v>3152.62</v>
       </c>
       <c r="E416" t="n">
-        <v>2869</v>
+        <v>2880</v>
       </c>
       <c r="F416" t="n">
         <v>7</v>
@@ -25451,7 +25451,7 @@
         <v>1569.46</v>
       </c>
       <c r="E417" t="n">
-        <v>3161</v>
+        <v>3172</v>
       </c>
       <c r="F417" t="n">
         <v>9</v>
@@ -25511,7 +25511,7 @@
         <v>908.8200000000001</v>
       </c>
       <c r="E418" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F418" t="n">
         <v>3</v>
@@ -25571,7 +25571,7 @@
         <v>2744.74</v>
       </c>
       <c r="E419" t="n">
-        <v>3095</v>
+        <v>3106</v>
       </c>
       <c r="F419" t="n">
         <v>12</v>
@@ -25631,7 +25631,7 @@
         <v>983.92</v>
       </c>
       <c r="E420" t="n">
-        <v>2866</v>
+        <v>2877</v>
       </c>
       <c r="F420" t="n">
         <v>7</v>
@@ -25691,7 +25691,7 @@
         <v>2120.95</v>
       </c>
       <c r="E421" t="n">
-        <v>3272</v>
+        <v>3283</v>
       </c>
       <c r="F421" t="n">
         <v>6</v>
@@ -25751,7 +25751,7 @@
         <v>3908.26</v>
       </c>
       <c r="E422" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F422" t="n">
         <v>4</v>
@@ -25811,7 +25811,7 @@
         <v>1146.05</v>
       </c>
       <c r="E423" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F423" t="n">
         <v>4</v>
@@ -25871,7 +25871,7 @@
         <v>8282.360000000001</v>
       </c>
       <c r="E424" t="n">
-        <v>3349</v>
+        <v>3360</v>
       </c>
       <c r="F424" t="n">
         <v>5</v>
@@ -25931,7 +25931,7 @@
         <v>1888.96</v>
       </c>
       <c r="E425" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F425" t="n">
         <v>6</v>
@@ -25991,7 +25991,7 @@
         <v>8181.26</v>
       </c>
       <c r="E426" t="n">
-        <v>2977</v>
+        <v>2988</v>
       </c>
       <c r="F426" t="n">
         <v>12</v>
@@ -26051,7 +26051,7 @@
         <v>2243.51</v>
       </c>
       <c r="E427" t="n">
-        <v>3154</v>
+        <v>3165</v>
       </c>
       <c r="F427" t="n">
         <v>5</v>
@@ -26111,7 +26111,7 @@
         <v>1686.73</v>
       </c>
       <c r="E428" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F428" t="n">
         <v>8</v>
@@ -26171,7 +26171,7 @@
         <v>10604.27</v>
       </c>
       <c r="E429" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F429" t="n">
         <v>7</v>
@@ -26231,7 +26231,7 @@
         <v>3312.86</v>
       </c>
       <c r="E430" t="n">
-        <v>2905</v>
+        <v>2916</v>
       </c>
       <c r="F430" t="n">
         <v>8</v>
@@ -26291,7 +26291,7 @@
         <v>3100.61</v>
       </c>
       <c r="E431" t="n">
-        <v>2866</v>
+        <v>2877</v>
       </c>
       <c r="F431" t="n">
         <v>6</v>
@@ -26351,7 +26351,7 @@
         <v>5952.86</v>
       </c>
       <c r="E432" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F432" t="n">
         <v>7</v>
@@ -26411,7 +26411,7 @@
         <v>3918.97</v>
       </c>
       <c r="E433" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F433" t="n">
         <v>9</v>
@@ -26471,7 +26471,7 @@
         <v>5990.8</v>
       </c>
       <c r="E434" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F434" t="n">
         <v>7</v>
@@ -26531,7 +26531,7 @@
         <v>5016.49</v>
       </c>
       <c r="E435" t="n">
-        <v>2881</v>
+        <v>2892</v>
       </c>
       <c r="F435" t="n">
         <v>8</v>
@@ -26591,7 +26591,7 @@
         <v>14175.23</v>
       </c>
       <c r="E436" t="n">
-        <v>2912</v>
+        <v>2923</v>
       </c>
       <c r="F436" t="n">
         <v>12</v>
@@ -26651,7 +26651,7 @@
         <v>2260.96</v>
       </c>
       <c r="E437" t="n">
-        <v>2879</v>
+        <v>2890</v>
       </c>
       <c r="F437" t="n">
         <v>6</v>
@@ -26711,7 +26711,7 @@
         <v>5620.19</v>
       </c>
       <c r="E438" t="n">
-        <v>2921</v>
+        <v>2932</v>
       </c>
       <c r="F438" t="n">
         <v>8</v>
@@ -26771,7 +26771,7 @@
         <v>453.54</v>
       </c>
       <c r="E439" t="n">
-        <v>2880</v>
+        <v>2891</v>
       </c>
       <c r="F439" t="n">
         <v>5</v>
@@ -26831,7 +26831,7 @@
         <v>4909.47</v>
       </c>
       <c r="E440" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F440" t="n">
         <v>8</v>
@@ -26891,7 +26891,7 @@
         <v>2617.27</v>
       </c>
       <c r="E441" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F441" t="n">
         <v>9</v>
@@ -26951,7 +26951,7 @@
         <v>2171.96</v>
       </c>
       <c r="E442" t="n">
-        <v>2917</v>
+        <v>2928</v>
       </c>
       <c r="F442" t="n">
         <v>5</v>
@@ -27011,7 +27011,7 @@
         <v>2280.58</v>
       </c>
       <c r="E443" t="n">
-        <v>2963</v>
+        <v>2974</v>
       </c>
       <c r="F443" t="n">
         <v>8</v>
@@ -27071,7 +27071,7 @@
         <v>88.47</v>
       </c>
       <c r="E444" t="n">
-        <v>3160</v>
+        <v>3171</v>
       </c>
       <c r="F444" t="n">
         <v>3</v>
@@ -27131,7 +27131,7 @@
         <v>3057.1</v>
       </c>
       <c r="E445" t="n">
-        <v>3256</v>
+        <v>3267</v>
       </c>
       <c r="F445" t="n">
         <v>7</v>
@@ -27191,7 +27191,7 @@
         <v>4642.09</v>
       </c>
       <c r="E446" t="n">
-        <v>2965</v>
+        <v>2976</v>
       </c>
       <c r="F446" t="n">
         <v>10</v>
@@ -27251,7 +27251,7 @@
         <v>4416.52</v>
       </c>
       <c r="E447" t="n">
-        <v>2961</v>
+        <v>2972</v>
       </c>
       <c r="F447" t="n">
         <v>5</v>
@@ -27311,7 +27311,7 @@
         <v>449.1</v>
       </c>
       <c r="E448" t="n">
-        <v>3636</v>
+        <v>3647</v>
       </c>
       <c r="F448" t="n">
         <v>4</v>
@@ -27371,7 +27371,7 @@
         <v>8673.219999999999</v>
       </c>
       <c r="E449" t="n">
-        <v>3019</v>
+        <v>3030</v>
       </c>
       <c r="F449" t="n">
         <v>11</v>
@@ -27432,7 +27432,7 @@
         <v>50.19</v>
       </c>
       <c r="E450" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F450" t="n">
         <v>3</v>
@@ -27492,7 +27492,7 @@
         <v>4985.68</v>
       </c>
       <c r="E451" t="n">
-        <v>3017</v>
+        <v>3028</v>
       </c>
       <c r="F451" t="n">
         <v>8</v>
@@ -27553,7 +27553,7 @@
         <v>2580.7</v>
       </c>
       <c r="E452" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F452" t="n">
         <v>8</v>
@@ -27613,7 +27613,7 @@
         <v>7663.13</v>
       </c>
       <c r="E453" t="n">
-        <v>2881</v>
+        <v>2892</v>
       </c>
       <c r="F453" t="n">
         <v>12</v>
@@ -27673,7 +27673,7 @@
         <v>4492.95</v>
       </c>
       <c r="E454" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F454" t="n">
         <v>8</v>
@@ -27733,7 +27733,7 @@
         <v>3246.63</v>
       </c>
       <c r="E455" t="n">
-        <v>3301</v>
+        <v>3312</v>
       </c>
       <c r="F455" t="n">
         <v>4</v>
@@ -27793,7 +27793,7 @@
         <v>2095.06</v>
       </c>
       <c r="E456" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F456" t="n">
         <v>5</v>
@@ -27853,7 +27853,7 @@
         <v>2633.58</v>
       </c>
       <c r="E457" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F457" t="n">
         <v>9</v>
@@ -27913,7 +27913,7 @@
         <v>5.3</v>
       </c>
       <c r="E458" t="n">
-        <v>3417</v>
+        <v>3428</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>
@@ -27973,7 +27973,7 @@
         <v>1961.93</v>
       </c>
       <c r="E459" t="n">
-        <v>3279</v>
+        <v>3290</v>
       </c>
       <c r="F459" t="n">
         <v>4</v>
@@ -28033,7 +28033,7 @@
         <v>1469.45</v>
       </c>
       <c r="E460" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F460" t="n">
         <v>6</v>
@@ -28093,7 +28093,7 @@
         <v>3930.51</v>
       </c>
       <c r="E461" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F461" t="n">
         <v>7</v>
@@ -28153,7 +28153,7 @@
         <v>287.43</v>
       </c>
       <c r="E462" t="n">
-        <v>3016</v>
+        <v>3027</v>
       </c>
       <c r="F462" t="n">
         <v>3</v>
@@ -28213,7 +28213,7 @@
         <v>2295.33</v>
       </c>
       <c r="E463" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F463" t="n">
         <v>9</v>
@@ -28273,7 +28273,7 @@
         <v>318.24</v>
       </c>
       <c r="E464" t="n">
-        <v>3104</v>
+        <v>3115</v>
       </c>
       <c r="F464" t="n">
         <v>4</v>
@@ -28333,7 +28333,7 @@
         <v>1739.69</v>
       </c>
       <c r="E465" t="n">
-        <v>3250</v>
+        <v>3261</v>
       </c>
       <c r="F465" t="n">
         <v>9</v>
@@ -28393,7 +28393,7 @@
         <v>2741.2</v>
       </c>
       <c r="E466" t="n">
-        <v>3114</v>
+        <v>3125</v>
       </c>
       <c r="F466" t="n">
         <v>6</v>
@@ -28453,7 +28453,7 @@
         <v>1346.77</v>
       </c>
       <c r="E467" t="n">
-        <v>3256</v>
+        <v>3267</v>
       </c>
       <c r="F467" t="n">
         <v>5</v>
@@ -28513,7 +28513,7 @@
         <v>644.35</v>
       </c>
       <c r="E468" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F468" t="n">
         <v>5</v>
@@ -28573,7 +28573,7 @@
         <v>756.61</v>
       </c>
       <c r="E469" t="n">
-        <v>2905</v>
+        <v>2916</v>
       </c>
       <c r="F469" t="n">
         <v>4</v>
@@ -28633,7 +28633,7 @@
         <v>3653.4</v>
       </c>
       <c r="E470" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F470" t="n">
         <v>7</v>
@@ -28693,7 +28693,7 @@
         <v>5142.89</v>
       </c>
       <c r="E471" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F471" t="n">
         <v>6</v>
@@ -28753,7 +28753,7 @@
         <v>1879.31</v>
       </c>
       <c r="E472" t="n">
-        <v>2997</v>
+        <v>3008</v>
       </c>
       <c r="F472" t="n">
         <v>5</v>
@@ -28813,7 +28813,7 @@
         <v>2845.27</v>
       </c>
       <c r="E473" t="n">
-        <v>3043</v>
+        <v>3054</v>
       </c>
       <c r="F473" t="n">
         <v>6</v>
@@ -28873,7 +28873,7 @@
         <v>2988.67</v>
       </c>
       <c r="E474" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F474" t="n">
         <v>9</v>
@@ -28933,7 +28933,7 @@
         <v>1010.26</v>
       </c>
       <c r="E475" t="n">
-        <v>2961</v>
+        <v>2972</v>
       </c>
       <c r="F475" t="n">
         <v>6</v>
@@ -28993,7 +28993,7 @@
         <v>368.88</v>
       </c>
       <c r="E476" t="n">
-        <v>3642</v>
+        <v>3653</v>
       </c>
       <c r="F476" t="n">
         <v>3</v>
@@ -29053,7 +29053,7 @@
         <v>1008.14</v>
       </c>
       <c r="E477" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F477" t="n">
         <v>6</v>
@@ -29113,7 +29113,7 @@
         <v>329.88</v>
       </c>
       <c r="E478" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F478" t="n">
         <v>3</v>
@@ -29173,7 +29173,7 @@
         <v>2936.25</v>
       </c>
       <c r="E479" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F479" t="n">
         <v>8</v>
@@ -29233,7 +29233,7 @@
         <v>2238.06</v>
       </c>
       <c r="E480" t="n">
-        <v>2953</v>
+        <v>2964</v>
       </c>
       <c r="F480" t="n">
         <v>5</v>
@@ -29293,7 +29293,7 @@
         <v>3230.31</v>
       </c>
       <c r="E481" t="n">
-        <v>2898</v>
+        <v>2909</v>
       </c>
       <c r="F481" t="n">
         <v>6</v>
@@ -29353,7 +29353,7 @@
         <v>1259.04</v>
       </c>
       <c r="E482" t="n">
-        <v>3070</v>
+        <v>3081</v>
       </c>
       <c r="F482" t="n">
         <v>3</v>
@@ -29413,7 +29413,7 @@
         <v>5420.51</v>
       </c>
       <c r="E483" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F483" t="n">
         <v>7</v>
@@ -29473,7 +29473,7 @@
         <v>4299.16</v>
       </c>
       <c r="E484" t="n">
-        <v>2929</v>
+        <v>2940</v>
       </c>
       <c r="F484" t="n">
         <v>11</v>
@@ -29533,7 +29533,7 @@
         <v>2453.28</v>
       </c>
       <c r="E485" t="n">
-        <v>3051</v>
+        <v>3062</v>
       </c>
       <c r="F485" t="n">
         <v>6</v>
@@ -29593,7 +29593,7 @@
         <v>1548.7</v>
       </c>
       <c r="E486" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F486" t="n">
         <v>10</v>
@@ -29653,7 +29653,7 @@
         <v>1428.23</v>
       </c>
       <c r="E487" t="n">
-        <v>2909</v>
+        <v>2920</v>
       </c>
       <c r="F487" t="n">
         <v>7</v>
@@ -29713,7 +29713,7 @@
         <v>2725.98</v>
       </c>
       <c r="E488" t="n">
-        <v>2941</v>
+        <v>2952</v>
       </c>
       <c r="F488" t="n">
         <v>8</v>
@@ -29773,7 +29773,7 @@
         <v>4432.14</v>
       </c>
       <c r="E489" t="n">
-        <v>3264</v>
+        <v>3275</v>
       </c>
       <c r="F489" t="n">
         <v>5</v>
@@ -29833,7 +29833,7 @@
         <v>1303.89</v>
       </c>
       <c r="E490" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F490" t="n">
         <v>8</v>
@@ -29893,7 +29893,7 @@
         <v>2426.07</v>
       </c>
       <c r="E491" t="n">
-        <v>2916</v>
+        <v>2927</v>
       </c>
       <c r="F491" t="n">
         <v>6</v>
@@ -29953,7 +29953,7 @@
         <v>2258.19</v>
       </c>
       <c r="E492" t="n">
-        <v>2977</v>
+        <v>2988</v>
       </c>
       <c r="F492" t="n">
         <v>8</v>
@@ -30013,7 +30013,7 @@
         <v>795.15</v>
       </c>
       <c r="E493" t="n">
-        <v>3054</v>
+        <v>3065</v>
       </c>
       <c r="F493" t="n">
         <v>4</v>
@@ -30073,7 +30073,7 @@
         <v>3805.71</v>
       </c>
       <c r="E494" t="n">
-        <v>2866</v>
+        <v>2877</v>
       </c>
       <c r="F494" t="n">
         <v>7</v>
@@ -30133,7 +30133,7 @@
         <v>2218.98</v>
       </c>
       <c r="E495" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F495" t="n">
         <v>10</v>
@@ -30193,7 +30193,7 @@
         <v>1582</v>
       </c>
       <c r="E496" t="n">
-        <v>3234</v>
+        <v>3245</v>
       </c>
       <c r="F496" t="n">
         <v>5</v>
@@ -30253,7 +30253,7 @@
         <v>3766.38</v>
       </c>
       <c r="E497" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F497" t="n">
         <v>7</v>
@@ -30313,7 +30313,7 @@
         <v>1204.91</v>
       </c>
       <c r="E498" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F498" t="n">
         <v>5</v>
@@ -30373,7 +30373,7 @@
         <v>10663.73</v>
       </c>
       <c r="E499" t="n">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F499" t="n">
         <v>10</v>
@@ -30433,7 +30433,7 @@
         <v>1908.45</v>
       </c>
       <c r="E500" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F500" t="n">
         <v>8</v>
@@ -30493,7 +30493,7 @@
         <v>1256.94</v>
       </c>
       <c r="E501" t="n">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F501" t="n">
         <v>4</v>
@@ -30553,7 +30553,7 @@
         <v>937.04</v>
       </c>
       <c r="E502" t="n">
-        <v>3286</v>
+        <v>3297</v>
       </c>
       <c r="F502" t="n">
         <v>5</v>
@@ -30613,7 +30613,7 @@
         <v>1758.3</v>
       </c>
       <c r="E503" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F503" t="n">
         <v>5</v>
@@ -30673,7 +30673,7 @@
         <v>3785.28</v>
       </c>
       <c r="E504" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F504" t="n">
         <v>7</v>
@@ -30733,7 +30733,7 @@
         <v>2350.19</v>
       </c>
       <c r="E505" t="n">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F505" t="n">
         <v>4</v>
@@ -30793,7 +30793,7 @@
         <v>1342.28</v>
       </c>
       <c r="E506" t="n">
-        <v>3420</v>
+        <v>3431</v>
       </c>
       <c r="F506" t="n">
         <v>3</v>
@@ -30853,7 +30853,7 @@
         <v>1242.83</v>
       </c>
       <c r="E507" t="n">
-        <v>2981</v>
+        <v>2992</v>
       </c>
       <c r="F507" t="n">
         <v>5</v>
@@ -30913,7 +30913,7 @@
         <v>776.38</v>
       </c>
       <c r="E508" t="n">
-        <v>2964</v>
+        <v>2975</v>
       </c>
       <c r="F508" t="n">
         <v>9</v>
@@ -30973,7 +30973,7 @@
         <v>3061.54</v>
       </c>
       <c r="E509" t="n">
-        <v>2949</v>
+        <v>2960</v>
       </c>
       <c r="F509" t="n">
         <v>4</v>
@@ -31033,7 +31033,7 @@
         <v>16.74</v>
       </c>
       <c r="E510" t="n">
-        <v>3129</v>
+        <v>3140</v>
       </c>
       <c r="F510" t="n">
         <v>1</v>
@@ -31093,7 +31093,7 @@
         <v>2394.02</v>
       </c>
       <c r="E511" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F511" t="n">
         <v>6</v>
@@ -31153,7 +31153,7 @@
         <v>400.02</v>
       </c>
       <c r="E512" t="n">
-        <v>3241</v>
+        <v>3252</v>
       </c>
       <c r="F512" t="n">
         <v>4</v>
@@ -31213,7 +31213,7 @@
         <v>2456.18</v>
       </c>
       <c r="E513" t="n">
-        <v>2950</v>
+        <v>2961</v>
       </c>
       <c r="F513" t="n">
         <v>8</v>
@@ -31273,7 +31273,7 @@
         <v>1252.8</v>
       </c>
       <c r="E514" t="n">
-        <v>3020</v>
+        <v>3031</v>
       </c>
       <c r="F514" t="n">
         <v>4</v>
@@ -31333,7 +31333,7 @@
         <v>2203.78</v>
       </c>
       <c r="E515" t="n">
-        <v>2963</v>
+        <v>2974</v>
       </c>
       <c r="F515" t="n">
         <v>7</v>
@@ -31393,7 +31393,7 @@
         <v>2984.95</v>
       </c>
       <c r="E516" t="n">
-        <v>2914</v>
+        <v>2925</v>
       </c>
       <c r="F516" t="n">
         <v>5</v>
@@ -31453,7 +31453,7 @@
         <v>5503.09</v>
       </c>
       <c r="E517" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F517" t="n">
         <v>9</v>
@@ -31513,7 +31513,7 @@
         <v>6320.75</v>
       </c>
       <c r="E518" t="n">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="F518" t="n">
         <v>7</v>
@@ -31573,7 +31573,7 @@
         <v>2302.37</v>
       </c>
       <c r="E519" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F519" t="n">
         <v>8</v>
@@ -31633,7 +31633,7 @@
         <v>1031.6</v>
       </c>
       <c r="E520" t="n">
-        <v>3105</v>
+        <v>3116</v>
       </c>
       <c r="F520" t="n">
         <v>4</v>
@@ -31693,7 +31693,7 @@
         <v>2722.84</v>
       </c>
       <c r="E521" t="n">
-        <v>2934</v>
+        <v>2945</v>
       </c>
       <c r="F521" t="n">
         <v>9</v>
@@ -31753,7 +31753,7 @@
         <v>2921.5</v>
       </c>
       <c r="E522" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F522" t="n">
         <v>6</v>
@@ -31813,7 +31813,7 @@
         <v>2071.91</v>
       </c>
       <c r="E523" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F523" t="n">
         <v>7</v>
@@ -31873,7 +31873,7 @@
         <v>742.08</v>
       </c>
       <c r="E524" t="n">
-        <v>2944</v>
+        <v>2955</v>
       </c>
       <c r="F524" t="n">
         <v>3</v>
@@ -31933,7 +31933,7 @@
         <v>162.23</v>
       </c>
       <c r="E525" t="n">
-        <v>2965</v>
+        <v>2976</v>
       </c>
       <c r="F525" t="n">
         <v>2</v>
@@ -31993,7 +31993,7 @@
         <v>1314.02</v>
       </c>
       <c r="E526" t="n">
-        <v>3033</v>
+        <v>3044</v>
       </c>
       <c r="F526" t="n">
         <v>4</v>
@@ -32053,7 +32053,7 @@
         <v>3794.08</v>
       </c>
       <c r="E527" t="n">
-        <v>2872</v>
+        <v>2883</v>
       </c>
       <c r="F527" t="n">
         <v>11</v>
@@ -32113,7 +32113,7 @@
         <v>2749.88</v>
       </c>
       <c r="E528" t="n">
-        <v>2926</v>
+        <v>2937</v>
       </c>
       <c r="F528" t="n">
         <v>8</v>
@@ -32173,7 +32173,7 @@
         <v>775.41</v>
       </c>
       <c r="E529" t="n">
-        <v>2950</v>
+        <v>2961</v>
       </c>
       <c r="F529" t="n">
         <v>9</v>
@@ -32233,7 +32233,7 @@
         <v>2477.95</v>
       </c>
       <c r="E530" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F530" t="n">
         <v>6</v>
@@ -32293,7 +32293,7 @@
         <v>922.49</v>
       </c>
       <c r="E531" t="n">
-        <v>2937</v>
+        <v>2948</v>
       </c>
       <c r="F531" t="n">
         <v>4</v>
@@ -32353,7 +32353,7 @@
         <v>1687.03</v>
       </c>
       <c r="E532" t="n">
-        <v>2969</v>
+        <v>2980</v>
       </c>
       <c r="F532" t="n">
         <v>8</v>
@@ -32413,7 +32413,7 @@
         <v>154.29</v>
       </c>
       <c r="E533" t="n">
-        <v>3045</v>
+        <v>3056</v>
       </c>
       <c r="F533" t="n">
         <v>2</v>
@@ -32473,7 +32473,7 @@
         <v>3206.13</v>
       </c>
       <c r="E534" t="n">
-        <v>3584</v>
+        <v>3595</v>
       </c>
       <c r="F534" t="n">
         <v>7</v>
@@ -32533,7 +32533,7 @@
         <v>3983.64</v>
       </c>
       <c r="E535" t="n">
-        <v>2937</v>
+        <v>2948</v>
       </c>
       <c r="F535" t="n">
         <v>9</v>
@@ -32593,7 +32593,7 @@
         <v>5087.92</v>
       </c>
       <c r="E536" t="n">
-        <v>2881</v>
+        <v>2892</v>
       </c>
       <c r="F536" t="n">
         <v>9</v>
@@ -32653,7 +32653,7 @@
         <v>639.1799999999999</v>
       </c>
       <c r="E537" t="n">
-        <v>2990</v>
+        <v>3001</v>
       </c>
       <c r="F537" t="n">
         <v>4</v>
@@ -32713,7 +32713,7 @@
         <v>7443.69</v>
       </c>
       <c r="E538" t="n">
-        <v>3138</v>
+        <v>3149</v>
       </c>
       <c r="F538" t="n">
         <v>10</v>
@@ -32774,7 +32774,7 @@
         <v>475.66</v>
       </c>
       <c r="E539" t="n">
-        <v>3299</v>
+        <v>3310</v>
       </c>
       <c r="F539" t="n">
         <v>4</v>
@@ -32834,7 +32834,7 @@
         <v>1613.4</v>
       </c>
       <c r="E540" t="n">
-        <v>3278</v>
+        <v>3289</v>
       </c>
       <c r="F540" t="n">
         <v>6</v>
@@ -32894,7 +32894,7 @@
         <v>3144.68</v>
       </c>
       <c r="E541" t="n">
-        <v>2986</v>
+        <v>2997</v>
       </c>
       <c r="F541" t="n">
         <v>9</v>
@@ -32954,7 +32954,7 @@
         <v>370.35</v>
       </c>
       <c r="E542" t="n">
-        <v>3317</v>
+        <v>3328</v>
       </c>
       <c r="F542" t="n">
         <v>4</v>
@@ -33014,7 +33014,7 @@
         <v>855.12</v>
       </c>
       <c r="E543" t="n">
-        <v>2891</v>
+        <v>2902</v>
       </c>
       <c r="F543" t="n">
         <v>6</v>
@@ -33074,7 +33074,7 @@
         <v>2890.14</v>
       </c>
       <c r="E544" t="n">
-        <v>2914</v>
+        <v>2925</v>
       </c>
       <c r="F544" t="n">
         <v>6</v>
@@ -33134,7 +33134,7 @@
         <v>1319.45</v>
       </c>
       <c r="E545" t="n">
-        <v>3068</v>
+        <v>3079</v>
       </c>
       <c r="F545" t="n">
         <v>4</v>
@@ -33194,7 +33194,7 @@
         <v>1560.05</v>
       </c>
       <c r="E546" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F546" t="n">
         <v>9</v>
@@ -33254,7 +33254,7 @@
         <v>1734.57</v>
       </c>
       <c r="E547" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F547" t="n">
         <v>7</v>
@@ -33314,7 +33314,7 @@
         <v>5341.9</v>
       </c>
       <c r="E548" t="n">
-        <v>2882</v>
+        <v>2893</v>
       </c>
       <c r="F548" t="n">
         <v>7</v>
@@ -33374,7 +33374,7 @@
         <v>5253.88</v>
       </c>
       <c r="E549" t="n">
-        <v>2909</v>
+        <v>2920</v>
       </c>
       <c r="F549" t="n">
         <v>2</v>
@@ -33434,7 +33434,7 @@
         <v>2254.29</v>
       </c>
       <c r="E550" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F550" t="n">
         <v>7</v>
@@ -33494,7 +33494,7 @@
         <v>4152.7</v>
       </c>
       <c r="E551" t="n">
-        <v>2936</v>
+        <v>2947</v>
       </c>
       <c r="F551" t="n">
         <v>11</v>
@@ -33554,7 +33554,7 @@
         <v>593.61</v>
       </c>
       <c r="E552" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F552" t="n">
         <v>4</v>
@@ -33614,7 +33614,7 @@
         <v>2564.91</v>
       </c>
       <c r="E553" t="n">
-        <v>3147</v>
+        <v>3158</v>
       </c>
       <c r="F553" t="n">
         <v>6</v>
@@ -33674,7 +33674,7 @@
         <v>273.87</v>
       </c>
       <c r="E554" t="n">
-        <v>4030</v>
+        <v>4041</v>
       </c>
       <c r="F554" t="n">
         <v>2</v>
@@ -33734,7 +33734,7 @@
         <v>1972.6</v>
       </c>
       <c r="E555" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F555" t="n">
         <v>9</v>
@@ -33794,7 +33794,7 @@
         <v>2461.4</v>
       </c>
       <c r="E556" t="n">
-        <v>3089</v>
+        <v>3100</v>
       </c>
       <c r="F556" t="n">
         <v>5</v>
@@ -33854,7 +33854,7 @@
         <v>2218.99</v>
       </c>
       <c r="E557" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F557" t="n">
         <v>6</v>
@@ -33914,7 +33914,7 @@
         <v>8241.74</v>
       </c>
       <c r="E558" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F558" t="n">
         <v>7</v>
@@ -33974,7 +33974,7 @@
         <v>1821.74</v>
       </c>
       <c r="E559" t="n">
-        <v>3069</v>
+        <v>3080</v>
       </c>
       <c r="F559" t="n">
         <v>5</v>
@@ -34034,7 +34034,7 @@
         <v>4326.14</v>
       </c>
       <c r="E560" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F560" t="n">
         <v>9</v>
@@ -34094,7 +34094,7 @@
         <v>2893.46</v>
       </c>
       <c r="E561" t="n">
-        <v>3048</v>
+        <v>3059</v>
       </c>
       <c r="F561" t="n">
         <v>6</v>
@@ -34154,7 +34154,7 @@
         <v>8322.83</v>
       </c>
       <c r="E562" t="n">
-        <v>2944</v>
+        <v>2955</v>
       </c>
       <c r="F562" t="n">
         <v>7</v>
@@ -34214,7 +34214,7 @@
         <v>377.16</v>
       </c>
       <c r="E563" t="n">
-        <v>3390</v>
+        <v>3401</v>
       </c>
       <c r="F563" t="n">
         <v>4</v>
@@ -34274,7 +34274,7 @@
         <v>2031.47</v>
       </c>
       <c r="E564" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F564" t="n">
         <v>7</v>
@@ -34334,7 +34334,7 @@
         <v>1869.58</v>
       </c>
       <c r="E565" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F565" t="n">
         <v>5</v>
@@ -34394,7 +34394,7 @@
         <v>1395.94</v>
       </c>
       <c r="E566" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F566" t="n">
         <v>5</v>
@@ -34454,7 +34454,7 @@
         <v>2673.29</v>
       </c>
       <c r="E567" t="n">
-        <v>3054</v>
+        <v>3065</v>
       </c>
       <c r="F567" t="n">
         <v>7</v>
@@ -34514,7 +34514,7 @@
         <v>572.05</v>
       </c>
       <c r="E568" t="n">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="F568" t="n">
         <v>7</v>
@@ -34574,7 +34574,7 @@
         <v>1418.09</v>
       </c>
       <c r="E569" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F569" t="n">
         <v>4</v>
@@ -34634,7 +34634,7 @@
         <v>6459.34</v>
       </c>
       <c r="E570" t="n">
-        <v>3025</v>
+        <v>3036</v>
       </c>
       <c r="F570" t="n">
         <v>7</v>
@@ -34694,7 +34694,7 @@
         <v>2161.98</v>
       </c>
       <c r="E571" t="n">
-        <v>3109</v>
+        <v>3120</v>
       </c>
       <c r="F571" t="n">
         <v>10</v>
@@ -34754,7 +34754,7 @@
         <v>5529.62</v>
       </c>
       <c r="E572" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F572" t="n">
         <v>6</v>
@@ -34814,7 +34814,7 @@
         <v>3908.4</v>
       </c>
       <c r="E573" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F573" t="n">
         <v>5</v>
@@ -34874,7 +34874,7 @@
         <v>1228.7</v>
       </c>
       <c r="E574" t="n">
-        <v>3271</v>
+        <v>3282</v>
       </c>
       <c r="F574" t="n">
         <v>6</v>
@@ -34934,7 +34934,7 @@
         <v>7903.18</v>
       </c>
       <c r="E575" t="n">
-        <v>3003</v>
+        <v>3014</v>
       </c>
       <c r="F575" t="n">
         <v>7</v>
@@ -34994,7 +34994,7 @@
         <v>2367.28</v>
       </c>
       <c r="E576" t="n">
-        <v>3075</v>
+        <v>3086</v>
       </c>
       <c r="F576" t="n">
         <v>5</v>
@@ -35054,7 +35054,7 @@
         <v>2575.86</v>
       </c>
       <c r="E577" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F577" t="n">
         <v>4</v>
@@ -35114,7 +35114,7 @@
         <v>2964.82</v>
       </c>
       <c r="E578" t="n">
-        <v>3039</v>
+        <v>3050</v>
       </c>
       <c r="F578" t="n">
         <v>13</v>
@@ -35174,7 +35174,7 @@
         <v>7234.01</v>
       </c>
       <c r="E579" t="n">
-        <v>3037</v>
+        <v>3048</v>
       </c>
       <c r="F579" t="n">
         <v>7</v>
@@ -35234,7 +35234,7 @@
         <v>2488.31</v>
       </c>
       <c r="E580" t="n">
-        <v>2950</v>
+        <v>2961</v>
       </c>
       <c r="F580" t="n">
         <v>9</v>
@@ -35294,7 +35294,7 @@
         <v>1567.52</v>
       </c>
       <c r="E581" t="n">
-        <v>3275</v>
+        <v>3286</v>
       </c>
       <c r="F581" t="n">
         <v>9</v>
@@ -35354,7 +35354,7 @@
         <v>3818.62</v>
       </c>
       <c r="E582" t="n">
-        <v>2930</v>
+        <v>2941</v>
       </c>
       <c r="F582" t="n">
         <v>5</v>
@@ -35414,7 +35414,7 @@
         <v>729.41</v>
       </c>
       <c r="E583" t="n">
-        <v>2968</v>
+        <v>2979</v>
       </c>
       <c r="F583" t="n">
         <v>6</v>
@@ -35474,7 +35474,7 @@
         <v>740.36</v>
       </c>
       <c r="E584" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F584" t="n">
         <v>3</v>
@@ -35534,7 +35534,7 @@
         <v>688.3200000000001</v>
       </c>
       <c r="E585" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F585" t="n">
         <v>4</v>
@@ -35594,7 +35594,7 @@
         <v>1456.95</v>
       </c>
       <c r="E586" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F586" t="n">
         <v>8</v>
@@ -35654,7 +35654,7 @@
         <v>132.74</v>
       </c>
       <c r="E587" t="n">
-        <v>3553</v>
+        <v>3564</v>
       </c>
       <c r="F587" t="n">
         <v>2</v>
@@ -35714,7 +35714,7 @@
         <v>1832.06</v>
       </c>
       <c r="E588" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F588" t="n">
         <v>4</v>
@@ -35774,7 +35774,7 @@
         <v>1061.49</v>
       </c>
       <c r="E589" t="n">
-        <v>3747</v>
+        <v>3758</v>
       </c>
       <c r="F589" t="n">
         <v>2</v>
@@ -35834,7 +35834,7 @@
         <v>9062.860000000001</v>
       </c>
       <c r="E590" t="n">
-        <v>3700</v>
+        <v>3711</v>
       </c>
       <c r="F590" t="n">
         <v>4</v>
@@ -35894,7 +35894,7 @@
         <v>2770</v>
       </c>
       <c r="E591" t="n">
-        <v>3061</v>
+        <v>3072</v>
       </c>
       <c r="F591" t="n">
         <v>6</v>
@@ -35954,7 +35954,7 @@
         <v>2206.13</v>
       </c>
       <c r="E592" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F592" t="n">
         <v>5</v>
@@ -36014,7 +36014,7 @@
         <v>3086.91</v>
       </c>
       <c r="E593" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F593" t="n">
         <v>13</v>
@@ -36074,7 +36074,7 @@
         <v>1987.16</v>
       </c>
       <c r="E594" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="F594" t="n">
         <v>9</v>
@@ -36134,7 +36134,7 @@
         <v>729.65</v>
       </c>
       <c r="E595" t="n">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="F595" t="n">
         <v>1</v>
@@ -36194,7 +36194,7 @@
         <v>1220.09</v>
       </c>
       <c r="E596" t="n">
-        <v>2904</v>
+        <v>2915</v>
       </c>
       <c r="F596" t="n">
         <v>8</v>
@@ -36254,7 +36254,7 @@
         <v>1824.23</v>
       </c>
       <c r="E597" t="n">
-        <v>2999</v>
+        <v>3010</v>
       </c>
       <c r="F597" t="n">
         <v>7</v>
@@ -36314,7 +36314,7 @@
         <v>1441.15</v>
       </c>
       <c r="E598" t="n">
-        <v>3348</v>
+        <v>3359</v>
       </c>
       <c r="F598" t="n">
         <v>2</v>
@@ -36374,7 +36374,7 @@
         <v>8646.93</v>
       </c>
       <c r="E599" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F599" t="n">
         <v>12</v>
@@ -36434,7 +36434,7 @@
         <v>239.48</v>
       </c>
       <c r="E600" t="n">
-        <v>2880</v>
+        <v>2891</v>
       </c>
       <c r="F600" t="n">
         <v>5</v>
@@ -36494,7 +36494,7 @@
         <v>1405.4</v>
       </c>
       <c r="E601" t="n">
-        <v>3251</v>
+        <v>3262</v>
       </c>
       <c r="F601" t="n">
         <v>3</v>
@@ -36554,7 +36554,7 @@
         <v>4115.66</v>
       </c>
       <c r="E602" t="n">
-        <v>2916</v>
+        <v>2927</v>
       </c>
       <c r="F602" t="n">
         <v>4</v>
@@ -36614,7 +36614,7 @@
         <v>1467.15</v>
       </c>
       <c r="E603" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F603" t="n">
         <v>8</v>
@@ -36674,7 +36674,7 @@
         <v>7473.83</v>
       </c>
       <c r="E604" t="n">
-        <v>2869</v>
+        <v>2880</v>
       </c>
       <c r="F604" t="n">
         <v>11</v>
@@ -36734,7 +36734,7 @@
         <v>2493.21</v>
       </c>
       <c r="E605" t="n">
-        <v>2865</v>
+        <v>2876</v>
       </c>
       <c r="F605" t="n">
         <v>7</v>
@@ -36794,7 +36794,7 @@
         <v>4893.04</v>
       </c>
       <c r="E606" t="n">
-        <v>3025</v>
+        <v>3036</v>
       </c>
       <c r="F606" t="n">
         <v>9</v>
@@ -36855,7 +36855,7 @@
         <v>1056.86</v>
       </c>
       <c r="E607" t="n">
-        <v>2951</v>
+        <v>2962</v>
       </c>
       <c r="F607" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
         <v>7252.61</v>
       </c>
       <c r="E608" t="n">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F608" t="n">
         <v>10</v>
@@ -36975,7 +36975,7 @@
         <v>1840.18</v>
       </c>
       <c r="E609" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F609" t="n">
         <v>5</v>
@@ -37035,7 +37035,7 @@
         <v>2181.48</v>
       </c>
       <c r="E610" t="n">
-        <v>2972</v>
+        <v>2983</v>
       </c>
       <c r="F610" t="n">
         <v>6</v>
@@ -37095,7 +37095,7 @@
         <v>1278.64</v>
       </c>
       <c r="E611" t="n">
-        <v>2934</v>
+        <v>2945</v>
       </c>
       <c r="F611" t="n">
         <v>8</v>
@@ -37155,7 +37155,7 @@
         <v>6843.63</v>
       </c>
       <c r="E612" t="n">
-        <v>3101</v>
+        <v>3112</v>
       </c>
       <c r="F612" t="n">
         <v>7</v>
@@ -37215,7 +37215,7 @@
         <v>160.57</v>
       </c>
       <c r="E613" t="n">
-        <v>2936</v>
+        <v>2947</v>
       </c>
       <c r="F613" t="n">
         <v>4</v>
@@ -37275,7 +37275,7 @@
         <v>2876.05</v>
       </c>
       <c r="E614" t="n">
-        <v>2954</v>
+        <v>2965</v>
       </c>
       <c r="F614" t="n">
         <v>5</v>
@@ -37335,7 +37335,7 @@
         <v>3454.92</v>
       </c>
       <c r="E615" t="n">
-        <v>2911</v>
+        <v>2922</v>
       </c>
       <c r="F615" t="n">
         <v>10</v>
@@ -37395,7 +37395,7 @@
         <v>3922.41</v>
       </c>
       <c r="E616" t="n">
-        <v>3329</v>
+        <v>3340</v>
       </c>
       <c r="F616" t="n">
         <v>7</v>
@@ -37455,7 +37455,7 @@
         <v>6108.34</v>
       </c>
       <c r="E617" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F617" t="n">
         <v>9</v>
@@ -37515,7 +37515,7 @@
         <v>2617.91</v>
       </c>
       <c r="E618" t="n">
-        <v>2870</v>
+        <v>2881</v>
       </c>
       <c r="F618" t="n">
         <v>9</v>
@@ -37575,7 +37575,7 @@
         <v>3832.31</v>
       </c>
       <c r="E619" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F619" t="n">
         <v>7</v>
@@ -37635,7 +37635,7 @@
         <v>4793.54</v>
       </c>
       <c r="E620" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F620" t="n">
         <v>9</v>
@@ -37695,7 +37695,7 @@
         <v>1686.92</v>
       </c>
       <c r="E621" t="n">
-        <v>2926</v>
+        <v>2937</v>
       </c>
       <c r="F621" t="n">
         <v>5</v>
@@ -37755,7 +37755,7 @@
         <v>1008.2</v>
       </c>
       <c r="E622" t="n">
-        <v>2933</v>
+        <v>2944</v>
       </c>
       <c r="F622" t="n">
         <v>2</v>
@@ -37815,7 +37815,7 @@
         <v>15117.34</v>
       </c>
       <c r="E623" t="n">
-        <v>2961</v>
+        <v>2972</v>
       </c>
       <c r="F623" t="n">
         <v>6</v>
@@ -37875,7 +37875,7 @@
         <v>2663.09</v>
       </c>
       <c r="E624" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F624" t="n">
         <v>8</v>
@@ -37935,7 +37935,7 @@
         <v>4715.47</v>
       </c>
       <c r="E625" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F625" t="n">
         <v>12</v>
@@ -37995,7 +37995,7 @@
         <v>528.55</v>
       </c>
       <c r="E626" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F626" t="n">
         <v>5</v>
@@ -38055,7 +38055,7 @@
         <v>221.08</v>
       </c>
       <c r="E627" t="n">
-        <v>3513</v>
+        <v>3524</v>
       </c>
       <c r="F627" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
         <v>2067.45</v>
       </c>
       <c r="E628" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F628" t="n">
         <v>4</v>
@@ -38175,7 +38175,7 @@
         <v>5633.32</v>
       </c>
       <c r="E629" t="n">
-        <v>2897</v>
+        <v>2908</v>
       </c>
       <c r="F629" t="n">
         <v>8</v>
@@ -38235,7 +38235,7 @@
         <v>966.41</v>
       </c>
       <c r="E630" t="n">
-        <v>3234</v>
+        <v>3245</v>
       </c>
       <c r="F630" t="n">
         <v>6</v>
@@ -38295,7 +38295,7 @@
         <v>885.75</v>
       </c>
       <c r="E631" t="n">
-        <v>2975</v>
+        <v>2986</v>
       </c>
       <c r="F631" t="n">
         <v>6</v>
@@ -38355,7 +38355,7 @@
         <v>4272.93</v>
       </c>
       <c r="E632" t="n">
-        <v>2937</v>
+        <v>2948</v>
       </c>
       <c r="F632" t="n">
         <v>8</v>
@@ -38415,7 +38415,7 @@
         <v>2912.89</v>
       </c>
       <c r="E633" t="n">
-        <v>3045</v>
+        <v>3056</v>
       </c>
       <c r="F633" t="n">
         <v>10</v>
@@ -38475,7 +38475,7 @@
         <v>2786.63</v>
       </c>
       <c r="E634" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F634" t="n">
         <v>5</v>
@@ -38535,7 +38535,7 @@
         <v>1419.74</v>
       </c>
       <c r="E635" t="n">
-        <v>2886</v>
+        <v>2897</v>
       </c>
       <c r="F635" t="n">
         <v>10</v>
@@ -38595,7 +38595,7 @@
         <v>1137.62</v>
       </c>
       <c r="E636" t="n">
-        <v>2879</v>
+        <v>2890</v>
       </c>
       <c r="F636" t="n">
         <v>8</v>
@@ -38655,7 +38655,7 @@
         <v>3133.92</v>
       </c>
       <c r="E637" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F637" t="n">
         <v>9</v>
@@ -38715,7 +38715,7 @@
         <v>970.9400000000001</v>
       </c>
       <c r="E638" t="n">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F638" t="n">
         <v>4</v>
@@ -38775,7 +38775,7 @@
         <v>48.36</v>
       </c>
       <c r="E639" t="n">
-        <v>3962</v>
+        <v>3973</v>
       </c>
       <c r="F639" t="n">
         <v>1</v>
@@ -38835,7 +38835,7 @@
         <v>876.7</v>
       </c>
       <c r="E640" t="n">
-        <v>3167</v>
+        <v>3178</v>
       </c>
       <c r="F640" t="n">
         <v>5</v>
@@ -38895,7 +38895,7 @@
         <v>3309.15</v>
       </c>
       <c r="E641" t="n">
-        <v>3255</v>
+        <v>3266</v>
       </c>
       <c r="F641" t="n">
         <v>8</v>
@@ -38956,7 +38956,7 @@
         <v>2341.3</v>
       </c>
       <c r="E642" t="n">
-        <v>2954</v>
+        <v>2965</v>
       </c>
       <c r="F642" t="n">
         <v>7</v>
@@ -39016,7 +39016,7 @@
         <v>945.22</v>
       </c>
       <c r="E643" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F643" t="n">
         <v>8</v>
@@ -39076,7 +39076,7 @@
         <v>3621.38</v>
       </c>
       <c r="E644" t="n">
-        <v>2897</v>
+        <v>2908</v>
       </c>
       <c r="F644" t="n">
         <v>5</v>
@@ -39136,7 +39136,7 @@
         <v>6979.18</v>
       </c>
       <c r="E645" t="n">
-        <v>3332</v>
+        <v>3343</v>
       </c>
       <c r="F645" t="n">
         <v>6</v>
@@ -39196,7 +39196,7 @@
         <v>740.38</v>
       </c>
       <c r="E646" t="n">
-        <v>3384</v>
+        <v>3395</v>
       </c>
       <c r="F646" t="n">
         <v>2</v>
@@ -39256,7 +39256,7 @@
         <v>2085.74</v>
       </c>
       <c r="E647" t="n">
-        <v>3399</v>
+        <v>3410</v>
       </c>
       <c r="F647" t="n">
         <v>3</v>
@@ -39316,7 +39316,7 @@
         <v>1460.19</v>
       </c>
       <c r="E648" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F648" t="n">
         <v>3</v>
@@ -39376,7 +39376,7 @@
         <v>6234.91</v>
       </c>
       <c r="E649" t="n">
-        <v>2986</v>
+        <v>2997</v>
       </c>
       <c r="F649" t="n">
         <v>8</v>
@@ -39436,7 +39436,7 @@
         <v>1453.47</v>
       </c>
       <c r="E650" t="n">
-        <v>3210</v>
+        <v>3221</v>
       </c>
       <c r="F650" t="n">
         <v>6</v>
@@ -39496,7 +39496,7 @@
         <v>5979.1</v>
       </c>
       <c r="E651" t="n">
-        <v>2871</v>
+        <v>2882</v>
       </c>
       <c r="F651" t="n">
         <v>5</v>
@@ -39556,7 +39556,7 @@
         <v>98.34999999999999</v>
       </c>
       <c r="E652" t="n">
-        <v>3164</v>
+        <v>3175</v>
       </c>
       <c r="F652" t="n">
         <v>1</v>
@@ -39616,7 +39616,7 @@
         <v>3815.48</v>
       </c>
       <c r="E653" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F653" t="n">
         <v>7</v>
@@ -39676,7 +39676,7 @@
         <v>954.65</v>
       </c>
       <c r="E654" t="n">
-        <v>3361</v>
+        <v>3372</v>
       </c>
       <c r="F654" t="n">
         <v>4</v>
@@ -39736,7 +39736,7 @@
         <v>5153.08</v>
       </c>
       <c r="E655" t="n">
-        <v>2898</v>
+        <v>2909</v>
       </c>
       <c r="F655" t="n">
         <v>12</v>
@@ -39796,7 +39796,7 @@
         <v>2170.72</v>
       </c>
       <c r="E656" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F656" t="n">
         <v>8</v>
@@ -39856,7 +39856,7 @@
         <v>615.9299999999999</v>
       </c>
       <c r="E657" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F657" t="n">
         <v>2</v>
@@ -39916,7 +39916,7 @@
         <v>3302.26</v>
       </c>
       <c r="E658" t="n">
-        <v>3035</v>
+        <v>3046</v>
       </c>
       <c r="F658" t="n">
         <v>6</v>
@@ -39976,7 +39976,7 @@
         <v>3221.29</v>
       </c>
       <c r="E659" t="n">
-        <v>2941</v>
+        <v>2952</v>
       </c>
       <c r="F659" t="n">
         <v>5</v>
@@ -40036,7 +40036,7 @@
         <v>4159.77</v>
       </c>
       <c r="E660" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F660" t="n">
         <v>8</v>
@@ -40096,7 +40096,7 @@
         <v>22.33</v>
       </c>
       <c r="E661" t="n">
-        <v>2884</v>
+        <v>2895</v>
       </c>
       <c r="F661" t="n">
         <v>2</v>
@@ -40156,7 +40156,7 @@
         <v>7397.4</v>
       </c>
       <c r="E662" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="F662" t="n">
         <v>7</v>
@@ -40216,7 +40216,7 @@
         <v>3279.75</v>
       </c>
       <c r="E663" t="n">
-        <v>2954</v>
+        <v>2965</v>
       </c>
       <c r="F663" t="n">
         <v>9</v>
@@ -40276,7 +40276,7 @@
         <v>3495.65</v>
       </c>
       <c r="E664" t="n">
-        <v>2944</v>
+        <v>2955</v>
       </c>
       <c r="F664" t="n">
         <v>5</v>
@@ -40336,7 +40336,7 @@
         <v>4767.34</v>
       </c>
       <c r="E665" t="n">
-        <v>2928</v>
+        <v>2939</v>
       </c>
       <c r="F665" t="n">
         <v>10</v>
@@ -40396,7 +40396,7 @@
         <v>1348.02</v>
       </c>
       <c r="E666" t="n">
-        <v>3066</v>
+        <v>3077</v>
       </c>
       <c r="F666" t="n">
         <v>3</v>
@@ -40456,7 +40456,7 @@
         <v>6411</v>
       </c>
       <c r="E667" t="n">
-        <v>3053</v>
+        <v>3064</v>
       </c>
       <c r="F667" t="n">
         <v>6</v>
@@ -40516,7 +40516,7 @@
         <v>8057.89</v>
       </c>
       <c r="E668" t="n">
-        <v>2912</v>
+        <v>2923</v>
       </c>
       <c r="F668" t="n">
         <v>7</v>
@@ -40576,7 +40576,7 @@
         <v>3362.96</v>
       </c>
       <c r="E669" t="n">
-        <v>3646</v>
+        <v>3657</v>
       </c>
       <c r="F669" t="n">
         <v>5</v>
@@ -40636,7 +40636,7 @@
         <v>4624.57</v>
       </c>
       <c r="E670" t="n">
-        <v>2905</v>
+        <v>2916</v>
       </c>
       <c r="F670" t="n">
         <v>9</v>
@@ -40696,7 +40696,7 @@
         <v>14142.33</v>
       </c>
       <c r="E671" t="n">
-        <v>3214</v>
+        <v>3225</v>
       </c>
       <c r="F671" t="n">
         <v>9</v>
@@ -40757,7 +40757,7 @@
         <v>4371.96</v>
       </c>
       <c r="E672" t="n">
-        <v>3014</v>
+        <v>3025</v>
       </c>
       <c r="F672" t="n">
         <v>4</v>
@@ -40817,7 +40817,7 @@
         <v>3729.79</v>
       </c>
       <c r="E673" t="n">
-        <v>3052</v>
+        <v>3063</v>
       </c>
       <c r="F673" t="n">
         <v>8</v>
@@ -40878,7 +40878,7 @@
         <v>3979.07</v>
       </c>
       <c r="E674" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F674" t="n">
         <v>7</v>
@@ -40938,7 +40938,7 @@
         <v>5992.54</v>
       </c>
       <c r="E675" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F675" t="n">
         <v>9</v>
@@ -40998,7 +40998,7 @@
         <v>1875</v>
       </c>
       <c r="E676" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F676" t="n">
         <v>7</v>
@@ -41058,7 +41058,7 @@
         <v>902.73</v>
       </c>
       <c r="E677" t="n">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F677" t="n">
         <v>5</v>
@@ -41118,7 +41118,7 @@
         <v>1254.64</v>
       </c>
       <c r="E678" t="n">
-        <v>2991</v>
+        <v>3002</v>
       </c>
       <c r="F678" t="n">
         <v>6</v>
@@ -41178,7 +41178,7 @@
         <v>2576.41</v>
       </c>
       <c r="E679" t="n">
-        <v>2954</v>
+        <v>2965</v>
       </c>
       <c r="F679" t="n">
         <v>10</v>
@@ -41238,7 +41238,7 @@
         <v>5226.21</v>
       </c>
       <c r="E680" t="n">
-        <v>3052</v>
+        <v>3063</v>
       </c>
       <c r="F680" t="n">
         <v>11</v>
@@ -41299,7 +41299,7 @@
         <v>4492.66</v>
       </c>
       <c r="E681" t="n">
-        <v>2906</v>
+        <v>2917</v>
       </c>
       <c r="F681" t="n">
         <v>7</v>
@@ -41359,7 +41359,7 @@
         <v>279.26</v>
       </c>
       <c r="E682" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F682" t="n">
         <v>4</v>
@@ -41419,7 +41419,7 @@
         <v>280.63</v>
       </c>
       <c r="E683" t="n">
-        <v>2996</v>
+        <v>3007</v>
       </c>
       <c r="F683" t="n">
         <v>2</v>
@@ -41479,7 +41479,7 @@
         <v>6121.11</v>
       </c>
       <c r="E684" t="n">
-        <v>3065</v>
+        <v>3076</v>
       </c>
       <c r="F684" t="n">
         <v>9</v>
@@ -41540,7 +41540,7 @@
         <v>12209.44</v>
       </c>
       <c r="E685" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F685" t="n">
         <v>11</v>
@@ -41600,7 +41600,7 @@
         <v>763.55</v>
       </c>
       <c r="E686" t="n">
-        <v>2924</v>
+        <v>2935</v>
       </c>
       <c r="F686" t="n">
         <v>7</v>
@@ -41660,7 +41660,7 @@
         <v>3422.79</v>
       </c>
       <c r="E687" t="n">
-        <v>2924</v>
+        <v>2935</v>
       </c>
       <c r="F687" t="n">
         <v>9</v>
@@ -41720,7 +41720,7 @@
         <v>3336.54</v>
       </c>
       <c r="E688" t="n">
-        <v>2913</v>
+        <v>2924</v>
       </c>
       <c r="F688" t="n">
         <v>9</v>
@@ -41780,7 +41780,7 @@
         <v>3406.58</v>
       </c>
       <c r="E689" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F689" t="n">
         <v>3</v>
@@ -41840,7 +41840,7 @@
         <v>1884.8</v>
       </c>
       <c r="E690" t="n">
-        <v>3048</v>
+        <v>3059</v>
       </c>
       <c r="F690" t="n">
         <v>8</v>
@@ -41900,7 +41900,7 @@
         <v>3124.83</v>
       </c>
       <c r="E691" t="n">
-        <v>2973</v>
+        <v>2984</v>
       </c>
       <c r="F691" t="n">
         <v>6</v>
@@ -41960,7 +41960,7 @@
         <v>47.95</v>
       </c>
       <c r="E692" t="n">
-        <v>3091</v>
+        <v>3102</v>
       </c>
       <c r="F692" t="n">
         <v>3</v>
@@ -42020,7 +42020,7 @@
         <v>3406.84</v>
       </c>
       <c r="E693" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F693" t="n">
         <v>13</v>
@@ -42080,7 +42080,7 @@
         <v>2180.72</v>
       </c>
       <c r="E694" t="n">
-        <v>2888</v>
+        <v>2899</v>
       </c>
       <c r="F694" t="n">
         <v>10</v>
@@ -42140,7 +42140,7 @@
         <v>2096.39</v>
       </c>
       <c r="E695" t="n">
-        <v>3630</v>
+        <v>3641</v>
       </c>
       <c r="F695" t="n">
         <v>2</v>
@@ -42200,7 +42200,7 @@
         <v>3949.66</v>
       </c>
       <c r="E696" t="n">
-        <v>2960</v>
+        <v>2971</v>
       </c>
       <c r="F696" t="n">
         <v>12</v>
@@ -42260,7 +42260,7 @@
         <v>1341.04</v>
       </c>
       <c r="E697" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F697" t="n">
         <v>6</v>
@@ -42320,7 +42320,7 @@
         <v>1318.78</v>
       </c>
       <c r="E698" t="n">
-        <v>3118</v>
+        <v>3129</v>
       </c>
       <c r="F698" t="n">
         <v>5</v>
@@ -42380,7 +42380,7 @@
         <v>883.41</v>
       </c>
       <c r="E699" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F699" t="n">
         <v>3</v>
@@ -42440,7 +42440,7 @@
         <v>3053.01</v>
       </c>
       <c r="E700" t="n">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="F700" t="n">
         <v>7</v>
@@ -42500,7 +42500,7 @@
         <v>244.49</v>
       </c>
       <c r="E701" t="n">
-        <v>3286</v>
+        <v>3297</v>
       </c>
       <c r="F701" t="n">
         <v>4</v>
@@ -42560,7 +42560,7 @@
         <v>25043.05</v>
       </c>
       <c r="E702" t="n">
-        <v>2944</v>
+        <v>2955</v>
       </c>
       <c r="F702" t="n">
         <v>5</v>
@@ -42620,7 +42620,7 @@
         <v>1043.04</v>
       </c>
       <c r="E703" t="n">
-        <v>3471</v>
+        <v>3482</v>
       </c>
       <c r="F703" t="n">
         <v>1</v>
@@ -42680,7 +42680,7 @@
         <v>5563.39</v>
       </c>
       <c r="E704" t="n">
-        <v>2890</v>
+        <v>2901</v>
       </c>
       <c r="F704" t="n">
         <v>12</v>
@@ -42740,7 +42740,7 @@
         <v>1860.42</v>
       </c>
       <c r="E705" t="n">
-        <v>2976</v>
+        <v>2987</v>
       </c>
       <c r="F705" t="n">
         <v>6</v>
@@ -42800,7 +42800,7 @@
         <v>3127.96</v>
       </c>
       <c r="E706" t="n">
-        <v>2944</v>
+        <v>2955</v>
       </c>
       <c r="F706" t="n">
         <v>7</v>
@@ -42860,7 +42860,7 @@
         <v>2602.58</v>
       </c>
       <c r="E707" t="n">
-        <v>2894</v>
+        <v>2905</v>
       </c>
       <c r="F707" t="n">
         <v>6</v>
@@ -42920,7 +42920,7 @@
         <v>1306.09</v>
       </c>
       <c r="E708" t="n">
-        <v>3192</v>
+        <v>3203</v>
       </c>
       <c r="F708" t="n">
         <v>6</v>
@@ -42980,7 +42980,7 @@
         <v>5440.32</v>
       </c>
       <c r="E709" t="n">
-        <v>2912</v>
+        <v>2923</v>
       </c>
       <c r="F709" t="n">
         <v>9</v>
@@ -43040,7 +43040,7 @@
         <v>1872.44</v>
       </c>
       <c r="E710" t="n">
-        <v>3251</v>
+        <v>3262</v>
       </c>
       <c r="F710" t="n">
         <v>9</v>
@@ -43100,7 +43100,7 @@
         <v>4282.94</v>
       </c>
       <c r="E711" t="n">
-        <v>2944</v>
+        <v>2955</v>
       </c>
       <c r="F711" t="n">
         <v>10</v>
@@ -43160,7 +43160,7 @@
         <v>3990.69</v>
       </c>
       <c r="E712" t="n">
-        <v>2935</v>
+        <v>2946</v>
       </c>
       <c r="F712" t="n">
         <v>6</v>
@@ -43220,7 +43220,7 @@
         <v>3233.48</v>
       </c>
       <c r="E713" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F713" t="n">
         <v>5</v>
@@ -43280,7 +43280,7 @@
         <v>4345.89</v>
       </c>
       <c r="E714" t="n">
-        <v>3061</v>
+        <v>3072</v>
       </c>
       <c r="F714" t="n">
         <v>8</v>
@@ -43341,7 +43341,7 @@
         <v>1324.03</v>
       </c>
       <c r="E715" t="n">
-        <v>2880</v>
+        <v>2891</v>
       </c>
       <c r="F715" t="n">
         <v>8</v>
@@ -43401,7 +43401,7 @@
         <v>3056.81</v>
       </c>
       <c r="E716" t="n">
-        <v>2975</v>
+        <v>2986</v>
       </c>
       <c r="F716" t="n">
         <v>6</v>
@@ -43461,7 +43461,7 @@
         <v>613.4</v>
       </c>
       <c r="E717" t="n">
-        <v>3356</v>
+        <v>3367</v>
       </c>
       <c r="F717" t="n">
         <v>3</v>
@@ -43521,7 +43521,7 @@
         <v>418.49</v>
       </c>
       <c r="E718" t="n">
-        <v>3297</v>
+        <v>3308</v>
       </c>
       <c r="F718" t="n">
         <v>6</v>
@@ -43581,7 +43581,7 @@
         <v>964.64</v>
       </c>
       <c r="E719" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="F719" t="n">
         <v>5</v>
@@ -43641,7 +43641,7 @@
         <v>433.34</v>
       </c>
       <c r="E720" t="n">
-        <v>2990</v>
+        <v>3001</v>
       </c>
       <c r="F720" t="n">
         <v>7</v>
@@ -43701,7 +43701,7 @@
         <v>2595.36</v>
       </c>
       <c r="E721" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F721" t="n">
         <v>7</v>
@@ -43761,7 +43761,7 @@
         <v>11470.95</v>
       </c>
       <c r="E722" t="n">
-        <v>2966</v>
+        <v>2977</v>
       </c>
       <c r="F722" t="n">
         <v>10</v>
@@ -43821,7 +43821,7 @@
         <v>4105.31</v>
       </c>
       <c r="E723" t="n">
-        <v>3185</v>
+        <v>3196</v>
       </c>
       <c r="F723" t="n">
         <v>9</v>
@@ -43882,7 +43882,7 @@
         <v>1271.09</v>
       </c>
       <c r="E724" t="n">
-        <v>2941</v>
+        <v>2952</v>
       </c>
       <c r="F724" t="n">
         <v>4</v>
@@ -43942,7 +43942,7 @@
         <v>1903.49</v>
       </c>
       <c r="E725" t="n">
-        <v>2867</v>
+        <v>2878</v>
       </c>
       <c r="F725" t="n">
         <v>8</v>
@@ -44002,7 +44002,7 @@
         <v>1085.08</v>
       </c>
       <c r="E726" t="n">
-        <v>2946</v>
+        <v>2957</v>
       </c>
       <c r="F726" t="n">
         <v>7</v>
@@ -44062,7 +44062,7 @@
         <v>1966.65</v>
       </c>
       <c r="E727" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F727" t="n">
         <v>6</v>
@@ -44122,7 +44122,7 @@
         <v>1019.04</v>
       </c>
       <c r="E728" t="n">
-        <v>3027</v>
+        <v>3038</v>
       </c>
       <c r="F728" t="n">
         <v>3</v>
@@ -44182,7 +44182,7 @@
         <v>2921.54</v>
       </c>
       <c r="E729" t="n">
-        <v>3027</v>
+        <v>3038</v>
       </c>
       <c r="F729" t="n">
         <v>7</v>
@@ -44242,7 +44242,7 @@
         <v>758.7</v>
       </c>
       <c r="E730" t="n">
-        <v>3399</v>
+        <v>3410</v>
       </c>
       <c r="F730" t="n">
         <v>2</v>
@@ -44302,7 +44302,7 @@
         <v>3625.33</v>
       </c>
       <c r="E731" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F731" t="n">
         <v>11</v>
@@ -44362,7 +44362,7 @@
         <v>14595.62</v>
       </c>
       <c r="E732" t="n">
-        <v>2934</v>
+        <v>2945</v>
       </c>
       <c r="F732" t="n">
         <v>4</v>
@@ -44422,7 +44422,7 @@
         <v>1467.88</v>
       </c>
       <c r="E733" t="n">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="F733" t="n">
         <v>5</v>
@@ -44482,7 +44482,7 @@
         <v>3589.3</v>
       </c>
       <c r="E734" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F734" t="n">
         <v>4</v>
@@ -44542,7 +44542,7 @@
         <v>816.17</v>
       </c>
       <c r="E735" t="n">
-        <v>2914</v>
+        <v>2925</v>
       </c>
       <c r="F735" t="n">
         <v>4</v>
@@ -44602,7 +44602,7 @@
         <v>1602.38</v>
       </c>
       <c r="E736" t="n">
-        <v>3214</v>
+        <v>3225</v>
       </c>
       <c r="F736" t="n">
         <v>7</v>
@@ -44662,7 +44662,7 @@
         <v>2198.45</v>
       </c>
       <c r="E737" t="n">
-        <v>3448</v>
+        <v>3459</v>
       </c>
       <c r="F737" t="n">
         <v>6</v>
@@ -44722,7 +44722,7 @@
         <v>834.33</v>
       </c>
       <c r="E738" t="n">
-        <v>3011</v>
+        <v>3022</v>
       </c>
       <c r="F738" t="n">
         <v>5</v>
@@ -44782,7 +44782,7 @@
         <v>9133.99</v>
       </c>
       <c r="E739" t="n">
-        <v>3067</v>
+        <v>3078</v>
       </c>
       <c r="F739" t="n">
         <v>7</v>
@@ -44842,7 +44842,7 @@
         <v>4737.49</v>
       </c>
       <c r="E740" t="n">
-        <v>2972</v>
+        <v>2983</v>
       </c>
       <c r="F740" t="n">
         <v>9</v>
@@ -44902,7 +44902,7 @@
         <v>1387.56</v>
       </c>
       <c r="E741" t="n">
-        <v>3150</v>
+        <v>3161</v>
       </c>
       <c r="F741" t="n">
         <v>5</v>
@@ -44962,7 +44962,7 @@
         <v>2797.67</v>
       </c>
       <c r="E742" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F742" t="n">
         <v>9</v>
@@ -45022,7 +45022,7 @@
         <v>19052.22</v>
       </c>
       <c r="E743" t="n">
-        <v>3264</v>
+        <v>3275</v>
       </c>
       <c r="F743" t="n">
         <v>5</v>
@@ -45083,7 +45083,7 @@
         <v>1038.26</v>
       </c>
       <c r="E744" t="n">
-        <v>2971</v>
+        <v>2982</v>
       </c>
       <c r="F744" t="n">
         <v>1</v>
@@ -45143,7 +45143,7 @@
         <v>4266.81</v>
       </c>
       <c r="E745" t="n">
-        <v>2892</v>
+        <v>2903</v>
       </c>
       <c r="F745" t="n">
         <v>8</v>
@@ -45203,7 +45203,7 @@
         <v>1244.98</v>
       </c>
       <c r="E746" t="n">
-        <v>3018</v>
+        <v>3029</v>
       </c>
       <c r="F746" t="n">
         <v>9</v>
@@ -45263,7 +45263,7 @@
         <v>742.5599999999999</v>
       </c>
       <c r="E747" t="n">
-        <v>2869</v>
+        <v>2880</v>
       </c>
       <c r="F747" t="n">
         <v>7</v>
@@ -45323,7 +45323,7 @@
         <v>1434.55</v>
       </c>
       <c r="E748" t="n">
-        <v>2902</v>
+        <v>2913</v>
       </c>
       <c r="F748" t="n">
         <v>9</v>
@@ -45383,7 +45383,7 @@
         <v>3058.37</v>
       </c>
       <c r="E749" t="n">
-        <v>3202</v>
+        <v>3213</v>
       </c>
       <c r="F749" t="n">
         <v>5</v>
@@ -45443,7 +45443,7 @@
         <v>2074.66</v>
       </c>
       <c r="E750" t="n">
-        <v>2979</v>
+        <v>2990</v>
       </c>
       <c r="F750" t="n">
         <v>4</v>
@@ -45503,7 +45503,7 @@
         <v>2422.82</v>
       </c>
       <c r="E751" t="n">
-        <v>3209</v>
+        <v>3220</v>
       </c>
       <c r="F751" t="n">
         <v>5</v>
@@ -45563,7 +45563,7 @@
         <v>2942.77</v>
       </c>
       <c r="E752" t="n">
-        <v>2923</v>
+        <v>2934</v>
       </c>
       <c r="F752" t="n">
         <v>4</v>
@@ -45623,7 +45623,7 @@
         <v>1022.2</v>
       </c>
       <c r="E753" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F753" t="n">
         <v>8</v>
@@ -45683,7 +45683,7 @@
         <v>4234.1</v>
       </c>
       <c r="E754" t="n">
-        <v>2937</v>
+        <v>2948</v>
       </c>
       <c r="F754" t="n">
         <v>7</v>
@@ -45743,7 +45743,7 @@
         <v>2955.23</v>
       </c>
       <c r="E755" t="n">
-        <v>2968</v>
+        <v>2979</v>
       </c>
       <c r="F755" t="n">
         <v>8</v>
@@ -45803,7 +45803,7 @@
         <v>1094.68</v>
       </c>
       <c r="E756" t="n">
-        <v>2995</v>
+        <v>3006</v>
       </c>
       <c r="F756" t="n">
         <v>3</v>
@@ -45863,7 +45863,7 @@
         <v>3130.22</v>
       </c>
       <c r="E757" t="n">
-        <v>2955</v>
+        <v>2966</v>
       </c>
       <c r="F757" t="n">
         <v>7</v>
@@ -45923,7 +45923,7 @@
         <v>4454.06</v>
       </c>
       <c r="E758" t="n">
-        <v>2873</v>
+        <v>2884</v>
       </c>
       <c r="F758" t="n">
         <v>9</v>
@@ -45983,7 +45983,7 @@
         <v>5329</v>
       </c>
       <c r="E759" t="n">
-        <v>2969</v>
+        <v>2980</v>
       </c>
       <c r="F759" t="n">
         <v>5</v>
@@ -46043,7 +46043,7 @@
         <v>1936.64</v>
       </c>
       <c r="E760" t="n">
-        <v>3215</v>
+        <v>3226</v>
       </c>
       <c r="F760" t="n">
         <v>4</v>
@@ -46103,7 +46103,7 @@
         <v>675.9400000000001</v>
       </c>
       <c r="E761" t="n">
-        <v>3058</v>
+        <v>3069</v>
       </c>
       <c r="F761" t="n">
         <v>5</v>
@@ -46163,7 +46163,7 @@
         <v>4.83</v>
       </c>
       <c r="E762" t="n">
-        <v>3222</v>
+        <v>3233</v>
       </c>
       <c r="F762" t="n">
         <v>2</v>
@@ -46223,7 +46223,7 @@
         <v>2163.62</v>
       </c>
       <c r="E763" t="n">
-        <v>3369</v>
+        <v>3380</v>
       </c>
       <c r="F763" t="n">
         <v>6</v>
@@ -46283,7 +46283,7 @@
         <v>5371.09</v>
       </c>
       <c r="E764" t="n">
-        <v>3063</v>
+        <v>3074</v>
       </c>
       <c r="F764" t="n">
         <v>7</v>
@@ -46343,7 +46343,7 @@
         <v>974.78</v>
       </c>
       <c r="E765" t="n">
-        <v>3091</v>
+        <v>3102</v>
       </c>
       <c r="F765" t="n">
         <v>5</v>
@@ -46403,7 +46403,7 @@
         <v>11891.75</v>
       </c>
       <c r="E766" t="n">
-        <v>2901</v>
+        <v>2912</v>
       </c>
       <c r="F766" t="n">
         <v>6</v>
@@ -46463,7 +46463,7 @@
         <v>2054.14</v>
       </c>
       <c r="E767" t="n">
-        <v>3037</v>
+        <v>3048</v>
       </c>
       <c r="F767" t="n">
         <v>5</v>
@@ -46523,7 +46523,7 @@
         <v>2243.27</v>
       </c>
       <c r="E768" t="n">
-        <v>2876</v>
+        <v>2887</v>
       </c>
       <c r="F768" t="n">
         <v>6</v>
@@ -46583,7 +46583,7 @@
         <v>2820.42</v>
       </c>
       <c r="E769" t="n">
-        <v>2920</v>
+        <v>2931</v>
       </c>
       <c r="F769" t="n">
         <v>7</v>
@@ -46643,7 +46643,7 @@
         <v>3368.09</v>
       </c>
       <c r="E770" t="n">
-        <v>3103</v>
+        <v>3114</v>
       </c>
       <c r="F770" t="n">
         <v>5</v>
@@ -46703,7 +46703,7 @@
         <v>4915.6</v>
       </c>
       <c r="E771" t="n">
-        <v>2896</v>
+        <v>2907</v>
       </c>
       <c r="F771" t="n">
         <v>7</v>
@@ -46763,7 +46763,7 @@
         <v>1427.04</v>
       </c>
       <c r="E772" t="n">
-        <v>3048</v>
+        <v>3059</v>
       </c>
       <c r="F772" t="n">
         <v>8</v>
@@ -46823,7 +46823,7 @@
         <v>439.5</v>
       </c>
       <c r="E773" t="n">
-        <v>3271</v>
+        <v>3282</v>
       </c>
       <c r="F773" t="n">
         <v>3</v>
@@ -46883,7 +46883,7 @@
         <v>5364.81</v>
       </c>
       <c r="E774" t="n">
-        <v>2877</v>
+        <v>2888</v>
       </c>
       <c r="F774" t="n">
         <v>7</v>
@@ -46943,7 +46943,7 @@
         <v>5278.83</v>
       </c>
       <c r="E775" t="n">
-        <v>2929</v>
+        <v>2940</v>
       </c>
       <c r="F775" t="n">
         <v>7</v>
@@ -47003,7 +47003,7 @@
         <v>1707.29</v>
       </c>
       <c r="E776" t="n">
-        <v>2900</v>
+        <v>2911</v>
       </c>
       <c r="F776" t="n">
         <v>4</v>
@@ -47063,7 +47063,7 @@
         <v>2005.6</v>
       </c>
       <c r="E777" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F777" t="n">
         <v>6</v>
@@ -47123,7 +47123,7 @@
         <v>6442.25</v>
       </c>
       <c r="E778" t="n">
-        <v>3446</v>
+        <v>3457</v>
       </c>
       <c r="F778" t="n">
         <v>6</v>
@@ -47183,7 +47183,7 @@
         <v>847.9400000000001</v>
       </c>
       <c r="E779" t="n">
-        <v>2878</v>
+        <v>2889</v>
       </c>
       <c r="F779" t="n">
         <v>5</v>
@@ -47243,7 +47243,7 @@
         <v>846.01</v>
       </c>
       <c r="E780" t="n">
-        <v>3019</v>
+        <v>3030</v>
       </c>
       <c r="F780" t="n">
         <v>6</v>
@@ -47303,7 +47303,7 @@
         <v>427.37</v>
       </c>
       <c r="E781" t="n">
-        <v>3151</v>
+        <v>3162</v>
       </c>
       <c r="F781" t="n">
         <v>5</v>
@@ -47363,7 +47363,7 @@
         <v>2454.87</v>
       </c>
       <c r="E782" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F782" t="n">
         <v>7</v>
@@ -47423,7 +47423,7 @@
         <v>380.69</v>
       </c>
       <c r="E783" t="n">
-        <v>2982</v>
+        <v>2993</v>
       </c>
       <c r="F783" t="n">
         <v>5</v>
@@ -47483,7 +47483,7 @@
         <v>993.9</v>
       </c>
       <c r="E784" t="n">
-        <v>2895</v>
+        <v>2906</v>
       </c>
       <c r="F784" t="n">
         <v>3</v>
@@ -47543,7 +47543,7 @@
         <v>3360.53</v>
       </c>
       <c r="E785" t="n">
-        <v>2940</v>
+        <v>2951</v>
       </c>
       <c r="F785" t="n">
         <v>7</v>
@@ -47603,7 +47603,7 @@
         <v>1055.98</v>
       </c>
       <c r="E786" t="n">
-        <v>3086</v>
+        <v>3097</v>
       </c>
       <c r="F786" t="n">
         <v>4</v>
@@ -47663,7 +47663,7 @@
         <v>1736.6</v>
       </c>
       <c r="E787" t="n">
-        <v>3865</v>
+        <v>3876</v>
       </c>
       <c r="F787" t="n">
         <v>2</v>
@@ -47723,7 +47723,7 @@
         <v>6134.04</v>
       </c>
       <c r="E788" t="n">
-        <v>2893</v>
+        <v>2904</v>
       </c>
       <c r="F788" t="n">
         <v>10</v>
@@ -47783,7 +47783,7 @@
         <v>6160.1</v>
       </c>
       <c r="E789" t="n">
-        <v>2885</v>
+        <v>2896</v>
       </c>
       <c r="F789" t="n">
         <v>11</v>
@@ -47843,7 +47843,7 @@
         <v>2374.66</v>
       </c>
       <c r="E790" t="n">
-        <v>2908</v>
+        <v>2919</v>
       </c>
       <c r="F790" t="n">
         <v>11</v>
@@ -47903,7 +47903,7 @@
         <v>5454.35</v>
       </c>
       <c r="E791" t="n">
-        <v>2869</v>
+        <v>2880</v>
       </c>
       <c r="F791" t="n">
         <v>5</v>
@@ -47963,7 +47963,7 @@
         <v>6720.44</v>
       </c>
       <c r="E792" t="n">
-        <v>2874</v>
+        <v>2885</v>
       </c>
       <c r="F792" t="n">
         <v>8</v>
@@ -48023,7 +48023,7 @@
         <v>8025.71</v>
       </c>
       <c r="E793" t="n">
-        <v>2919</v>
+        <v>2930</v>
       </c>
       <c r="F793" t="n">
         <v>13</v>
@@ -48083,7 +48083,7 @@
         <v>1493.94</v>
       </c>
       <c r="E794" t="n">
-        <v>3067</v>
+        <v>3078</v>
       </c>
       <c r="F794" t="n">
         <v>5</v>
